--- a/dataset/cleanData/dataYear/data_2016.xlsx
+++ b/dataset/cleanData/dataYear/data_2016.xlsx
@@ -16,10 +16,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -58,12 +55,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -570,8 +566,8 @@
           <t>2301</t>
         </is>
       </c>
-      <c r="B2" s="2" t="n">
-        <v>42734</v>
+      <c r="B2" t="n">
+        <v>20161230</v>
       </c>
       <c r="C2" t="n">
         <v>157924039</v>
@@ -649,8 +645,8 @@
           <t>2305</t>
         </is>
       </c>
-      <c r="B3" s="2" t="n">
-        <v>42734</v>
+      <c r="B3" t="n">
+        <v>20161230</v>
       </c>
       <c r="C3" t="n">
         <v>1419343</v>
@@ -728,8 +724,8 @@
           <t>2324</t>
         </is>
       </c>
-      <c r="B4" s="2" t="n">
-        <v>42734</v>
+      <c r="B4" t="n">
+        <v>20161230</v>
       </c>
       <c r="C4" t="n">
         <v>300469007</v>
@@ -807,8 +803,8 @@
           <t>2331</t>
         </is>
       </c>
-      <c r="B5" s="2" t="n">
-        <v>42734</v>
+      <c r="B5" t="n">
+        <v>20161230</v>
       </c>
       <c r="C5" t="n">
         <v>16383504</v>
@@ -886,8 +882,8 @@
           <t>2352</t>
         </is>
       </c>
-      <c r="B6" s="2" t="n">
-        <v>42734</v>
+      <c r="B6" t="n">
+        <v>20161230</v>
       </c>
       <c r="C6" t="n">
         <v>52268180</v>
@@ -965,8 +961,8 @@
           <t>2353</t>
         </is>
       </c>
-      <c r="B7" s="2" t="n">
-        <v>42734</v>
+      <c r="B7" t="n">
+        <v>20161230</v>
       </c>
       <c r="C7" t="n">
         <v>133863136</v>
@@ -1044,8 +1040,8 @@
           <t>2356</t>
         </is>
       </c>
-      <c r="B8" s="2" t="n">
-        <v>42734</v>
+      <c r="B8" t="n">
+        <v>20161230</v>
       </c>
       <c r="C8" t="n">
         <v>136793121</v>
@@ -1123,8 +1119,8 @@
           <t>2357</t>
         </is>
       </c>
-      <c r="B9" s="2" t="n">
-        <v>42734</v>
+      <c r="B9" t="n">
+        <v>20161230</v>
       </c>
       <c r="C9" t="n">
         <v>273972099</v>
@@ -1202,8 +1198,8 @@
           <t>2362</t>
         </is>
       </c>
-      <c r="B10" s="2" t="n">
-        <v>42734</v>
+      <c r="B10" t="n">
+        <v>20161230</v>
       </c>
       <c r="C10" t="n">
         <v>23645678</v>
@@ -1281,8 +1277,8 @@
           <t>2364</t>
         </is>
       </c>
-      <c r="B11" s="2" t="n">
-        <v>42734</v>
+      <c r="B11" t="n">
+        <v>20161230</v>
       </c>
       <c r="C11" t="n">
         <v>451255</v>
@@ -1360,8 +1356,8 @@
           <t>2365</t>
         </is>
       </c>
-      <c r="B12" s="2" t="n">
-        <v>42734</v>
+      <c r="B12" t="n">
+        <v>20161230</v>
       </c>
       <c r="C12" t="n">
         <v>2793369</v>
@@ -1439,8 +1435,8 @@
           <t>2376</t>
         </is>
       </c>
-      <c r="B13" s="2" t="n">
-        <v>42734</v>
+      <c r="B13" t="n">
+        <v>20161230</v>
       </c>
       <c r="C13" t="n">
         <v>30955717</v>
@@ -1518,8 +1514,8 @@
           <t>2377</t>
         </is>
       </c>
-      <c r="B14" s="2" t="n">
-        <v>42734</v>
+      <c r="B14" t="n">
+        <v>20161230</v>
       </c>
       <c r="C14" t="n">
         <v>44556225</v>
@@ -1597,8 +1593,8 @@
           <t>2380</t>
         </is>
       </c>
-      <c r="B15" s="2" t="n">
-        <v>42734</v>
+      <c r="B15" t="n">
+        <v>20161230</v>
       </c>
       <c r="C15" t="n">
         <v>2211939</v>
@@ -1676,8 +1672,8 @@
           <t>2382</t>
         </is>
       </c>
-      <c r="B16" s="2" t="n">
-        <v>42734</v>
+      <c r="B16" t="n">
+        <v>20161230</v>
       </c>
       <c r="C16" t="n">
         <v>532426459</v>
@@ -1755,8 +1751,8 @@
           <t>2387</t>
         </is>
       </c>
-      <c r="B17" s="2" t="n">
-        <v>42734</v>
+      <c r="B17" t="n">
+        <v>20161230</v>
       </c>
       <c r="C17" t="n">
         <v>9848433</v>
@@ -1834,8 +1830,8 @@
           <t>2395</t>
         </is>
       </c>
-      <c r="B18" s="2" t="n">
-        <v>42734</v>
+      <c r="B18" t="n">
+        <v>20161230</v>
       </c>
       <c r="C18" t="n">
         <v>21181711</v>
@@ -1913,8 +1909,8 @@
           <t>2397</t>
         </is>
       </c>
-      <c r="B19" s="2" t="n">
-        <v>42734</v>
+      <c r="B19" t="n">
+        <v>20161230</v>
       </c>
       <c r="C19" t="n">
         <v>3221849</v>
@@ -1992,8 +1988,8 @@
           <t>2399</t>
         </is>
       </c>
-      <c r="B20" s="2" t="n">
-        <v>42734</v>
+      <c r="B20" t="n">
+        <v>20161230</v>
       </c>
       <c r="C20" t="n">
         <v>2613024</v>
@@ -2071,8 +2067,8 @@
           <t>2405</t>
         </is>
       </c>
-      <c r="B21" s="2" t="n">
-        <v>42734</v>
+      <c r="B21" t="n">
+        <v>20161230</v>
       </c>
       <c r="C21" t="n">
         <v>4276921</v>
@@ -2150,8 +2146,8 @@
           <t>2417</t>
         </is>
       </c>
-      <c r="B22" s="2" t="n">
-        <v>42734</v>
+      <c r="B22" t="n">
+        <v>20161230</v>
       </c>
       <c r="C22" t="n">
         <v>2732092</v>
@@ -2229,8 +2225,8 @@
           <t>2425</t>
         </is>
       </c>
-      <c r="B23" s="2" t="n">
-        <v>42734</v>
+      <c r="B23" t="n">
+        <v>20161230</v>
       </c>
       <c r="C23" t="n">
         <v>2201468</v>
@@ -2308,8 +2304,8 @@
           <t>2465</t>
         </is>
       </c>
-      <c r="B24" s="2" t="n">
-        <v>42734</v>
+      <c r="B24" t="n">
+        <v>20161230</v>
       </c>
       <c r="C24" t="n">
         <v>903907</v>
@@ -2387,8 +2383,8 @@
           <t>2495</t>
         </is>
       </c>
-      <c r="B25" s="2" t="n">
-        <v>42734</v>
+      <c r="B25" t="n">
+        <v>20161230</v>
       </c>
       <c r="C25" t="n">
         <v>4093447</v>
@@ -2466,8 +2462,8 @@
           <t>3002</t>
         </is>
       </c>
-      <c r="B26" s="2" t="n">
-        <v>42734</v>
+      <c r="B26" t="n">
+        <v>20161230</v>
       </c>
       <c r="C26" t="n">
         <v>1316880</v>
@@ -2545,8 +2541,8 @@
           <t>3005</t>
         </is>
       </c>
-      <c r="B27" s="2" t="n">
-        <v>42734</v>
+      <c r="B27" t="n">
+        <v>20161230</v>
       </c>
       <c r="C27" t="n">
         <v>15651090</v>
@@ -2624,8 +2620,8 @@
           <t>3013</t>
         </is>
       </c>
-      <c r="B28" s="2" t="n">
-        <v>42734</v>
+      <c r="B28" t="n">
+        <v>20161230</v>
       </c>
       <c r="C28" t="n">
         <v>2458237</v>
@@ -2703,8 +2699,8 @@
           <t>3017</t>
         </is>
       </c>
-      <c r="B29" s="2" t="n">
-        <v>42734</v>
+      <c r="B29" t="n">
+        <v>20161230</v>
       </c>
       <c r="C29" t="n">
         <v>19872338</v>
@@ -2782,8 +2778,8 @@
           <t>3022</t>
         </is>
       </c>
-      <c r="B30" s="2" t="n">
-        <v>42734</v>
+      <c r="B30" t="n">
+        <v>20161230</v>
       </c>
       <c r="C30" t="n">
         <v>7594378</v>
@@ -2861,8 +2857,8 @@
           <t>3046</t>
         </is>
       </c>
-      <c r="B31" s="2" t="n">
-        <v>42734</v>
+      <c r="B31" t="n">
+        <v>20161230</v>
       </c>
       <c r="C31" t="n">
         <v>1004608</v>
@@ -2940,8 +2936,8 @@
           <t>3057</t>
         </is>
       </c>
-      <c r="B32" s="2" t="n">
-        <v>42734</v>
+      <c r="B32" t="n">
+        <v>20161230</v>
       </c>
       <c r="C32" t="n">
         <v>1844490</v>
@@ -3019,8 +3015,8 @@
           <t>3060</t>
         </is>
       </c>
-      <c r="B33" s="2" t="n">
-        <v>42734</v>
+      <c r="B33" t="n">
+        <v>20161230</v>
       </c>
       <c r="C33" t="n">
         <v>5488279</v>
@@ -3098,8 +3094,8 @@
           <t>3231</t>
         </is>
       </c>
-      <c r="B34" s="2" t="n">
-        <v>42734</v>
+      <c r="B34" t="n">
+        <v>20161230</v>
       </c>
       <c r="C34" t="n">
         <v>225656731</v>
@@ -3177,8 +3173,8 @@
           <t>3416</t>
         </is>
       </c>
-      <c r="B35" s="2" t="n">
-        <v>42734</v>
+      <c r="B35" t="n">
+        <v>20161230</v>
       </c>
       <c r="C35" t="n">
         <v>1331017</v>
@@ -3256,8 +3252,8 @@
           <t>3494</t>
         </is>
       </c>
-      <c r="B36" s="2" t="n">
-        <v>42734</v>
+      <c r="B36" t="n">
+        <v>20161230</v>
       </c>
       <c r="C36" t="n">
         <v>1613322</v>
@@ -3335,8 +3331,8 @@
           <t>3515</t>
         </is>
       </c>
-      <c r="B37" s="2" t="n">
-        <v>42734</v>
+      <c r="B37" t="n">
+        <v>20161230</v>
       </c>
       <c r="C37" t="n">
         <v>7751292</v>
@@ -3414,8 +3410,8 @@
           <t>3652</t>
         </is>
       </c>
-      <c r="B38" s="2" t="n">
-        <v>42734</v>
+      <c r="B38" t="n">
+        <v>20161230</v>
       </c>
       <c r="C38" t="n">
         <v>1327370</v>
@@ -3493,8 +3489,8 @@
           <t>3701</t>
         </is>
       </c>
-      <c r="B39" s="2" t="n">
-        <v>42734</v>
+      <c r="B39" t="n">
+        <v>20161230</v>
       </c>
       <c r="C39" t="n">
         <v>5764609</v>
@@ -3572,8 +3568,8 @@
           <t>3706</t>
         </is>
       </c>
-      <c r="B40" s="2" t="n">
-        <v>42734</v>
+      <c r="B40" t="n">
+        <v>20161230</v>
       </c>
       <c r="C40" t="n">
         <v>25553342</v>
@@ -3651,8 +3647,8 @@
           <t>4916</t>
         </is>
       </c>
-      <c r="B41" s="2" t="n">
-        <v>42734</v>
+      <c r="B41" t="n">
+        <v>20161230</v>
       </c>
       <c r="C41" t="n">
         <v>1376592</v>
@@ -3730,8 +3726,8 @@
           <t>4938</t>
         </is>
       </c>
-      <c r="B42" s="2" t="n">
-        <v>42734</v>
+      <c r="B42" t="n">
+        <v>20161230</v>
       </c>
       <c r="C42" t="n">
         <v>364225586</v>
@@ -3809,8 +3805,8 @@
           <t>5215</t>
         </is>
       </c>
-      <c r="B43" s="2" t="n">
-        <v>42734</v>
+      <c r="B43" t="n">
+        <v>20161230</v>
       </c>
       <c r="C43" t="n">
         <v>1880390</v>
@@ -3888,8 +3884,8 @@
           <t>5258</t>
         </is>
       </c>
-      <c r="B44" s="2" t="n">
-        <v>42734</v>
+      <c r="B44" t="n">
+        <v>20161230</v>
       </c>
       <c r="C44" t="n">
         <v>2606378</v>
@@ -3967,8 +3963,8 @@
           <t>6117</t>
         </is>
       </c>
-      <c r="B45" s="2" t="n">
-        <v>42734</v>
+      <c r="B45" t="n">
+        <v>20161230</v>
       </c>
       <c r="C45" t="n">
         <v>1609552</v>
@@ -4046,8 +4042,8 @@
           <t>6128</t>
         </is>
       </c>
-      <c r="B46" s="2" t="n">
-        <v>42734</v>
+      <c r="B46" t="n">
+        <v>20161230</v>
       </c>
       <c r="C46" t="n">
         <v>1353270</v>
@@ -4125,8 +4121,8 @@
           <t>6166</t>
         </is>
       </c>
-      <c r="B47" s="2" t="n">
-        <v>42734</v>
+      <c r="B47" t="n">
+        <v>20161230</v>
       </c>
       <c r="C47" t="n">
         <v>5803542</v>
@@ -4204,8 +4200,8 @@
           <t>6206</t>
         </is>
       </c>
-      <c r="B48" s="2" t="n">
-        <v>42734</v>
+      <c r="B48" t="n">
+        <v>20161230</v>
       </c>
       <c r="C48" t="n">
         <v>4378175</v>
@@ -4283,8 +4279,8 @@
           <t>6230</t>
         </is>
       </c>
-      <c r="B49" s="2" t="n">
-        <v>42734</v>
+      <c r="B49" t="n">
+        <v>20161230</v>
       </c>
       <c r="C49" t="n">
         <v>5169344</v>
@@ -4362,8 +4358,8 @@
           <t>6235</t>
         </is>
       </c>
-      <c r="B50" s="2" t="n">
-        <v>42734</v>
+      <c r="B50" t="n">
+        <v>20161230</v>
       </c>
       <c r="C50" t="n">
         <v>2791194</v>
@@ -4441,8 +4437,8 @@
           <t>6277</t>
         </is>
       </c>
-      <c r="B51" s="2" t="n">
-        <v>42734</v>
+      <c r="B51" t="n">
+        <v>20161230</v>
       </c>
       <c r="C51" t="n">
         <v>3206670</v>
@@ -4520,8 +4516,8 @@
           <t>6414</t>
         </is>
       </c>
-      <c r="B52" s="2" t="n">
-        <v>42734</v>
+      <c r="B52" t="n">
+        <v>20161230</v>
       </c>
       <c r="C52" t="n">
         <v>8738727</v>
@@ -4599,8 +4595,8 @@
           <t>6579</t>
         </is>
       </c>
-      <c r="B53" s="2" t="n">
-        <v>42734</v>
+      <c r="B53" t="n">
+        <v>20161230</v>
       </c>
       <c r="C53" t="n">
         <v>3934443</v>
@@ -4678,8 +4674,8 @@
           <t>6591</t>
         </is>
       </c>
-      <c r="B54" s="2" t="n">
-        <v>42734</v>
+      <c r="B54" t="n">
+        <v>20161230</v>
       </c>
       <c r="C54" t="n">
         <v>812067</v>
@@ -4757,8 +4753,8 @@
           <t>6669</t>
         </is>
       </c>
-      <c r="B55" s="2" t="n">
-        <v>42734</v>
+      <c r="B55" t="n">
+        <v>20161230</v>
       </c>
       <c r="C55" t="n">
         <v>11350432</v>
@@ -4836,8 +4832,8 @@
           <t>8114</t>
         </is>
       </c>
-      <c r="B56" s="2" t="n">
-        <v>42734</v>
+      <c r="B56" t="n">
+        <v>20161230</v>
       </c>
       <c r="C56" t="n">
         <v>2393431</v>
@@ -4915,8 +4911,8 @@
           <t>8163</t>
         </is>
       </c>
-      <c r="B57" s="2" t="n">
-        <v>42734</v>
+      <c r="B57" t="n">
+        <v>20161230</v>
       </c>
       <c r="C57" t="n">
         <v>11374316</v>
@@ -4994,8 +4990,8 @@
           <t>8210</t>
         </is>
       </c>
-      <c r="B58" s="2" t="n">
-        <v>42734</v>
+      <c r="B58" t="n">
+        <v>20161230</v>
       </c>
       <c r="C58" t="n">
         <v>3221308</v>
@@ -5073,8 +5069,8 @@
           <t>9912</t>
         </is>
       </c>
-      <c r="B59" s="2" t="n">
-        <v>42734</v>
+      <c r="B59" t="n">
+        <v>20161230</v>
       </c>
       <c r="C59" t="n">
         <v>376856</v>

--- a/dataset/cleanData/dataYear/data_2016.xlsx
+++ b/dataset/cleanData/dataYear/data_2016.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/dataset/cleanData/dataYear/data_2016.xlsx
+++ b/dataset/cleanData/dataYear/data_2016.xlsx
@@ -642,144 +642,144 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2305</t>
+          <t>3231</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>20161230</v>
       </c>
       <c r="C3" t="n">
-        <v>1419343</v>
+        <v>225656731</v>
       </c>
       <c r="D3" t="n">
-        <v>1390573</v>
+        <v>57098827</v>
       </c>
       <c r="E3" t="n">
-        <v>2809916</v>
+        <v>282755558</v>
       </c>
       <c r="F3" t="n">
-        <v>927124</v>
+        <v>197453207</v>
       </c>
       <c r="G3" t="n">
-        <v>109553</v>
+        <v>17333902</v>
       </c>
       <c r="H3" t="n">
-        <v>1036677</v>
+        <v>214787109</v>
       </c>
       <c r="I3" t="n">
-        <v>1773239</v>
+        <v>67968449</v>
       </c>
       <c r="J3" t="n">
-        <v>2809916</v>
+        <v>282755558</v>
       </c>
       <c r="K3" t="n">
-        <v>2056608</v>
+        <v>26503165</v>
       </c>
       <c r="L3" t="n">
-        <v>2056608</v>
+        <v>26503165</v>
       </c>
       <c r="M3" t="n">
-        <v>-49781</v>
+        <v>-2592278</v>
       </c>
       <c r="N3" t="n">
-        <v>33255</v>
+        <v>4757100</v>
       </c>
       <c r="O3" t="n">
-        <v>-20.27</v>
+        <v>135.5</v>
       </c>
       <c r="P3" t="n">
-        <v>2.94</v>
+        <v>0.45</v>
       </c>
       <c r="Q3" t="n">
-        <v>4.65</v>
+        <v>0.72</v>
       </c>
       <c r="R3" t="n">
-        <v>34.82</v>
+        <v>4.8</v>
       </c>
       <c r="S3" t="n">
-        <v>-16.24</v>
+        <v>0.91</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2324</t>
+          <t>2305</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>20161230</v>
       </c>
       <c r="C4" t="n">
-        <v>300469007</v>
+        <v>1419343</v>
       </c>
       <c r="D4" t="n">
-        <v>46547104</v>
+        <v>1390573</v>
       </c>
       <c r="E4" t="n">
-        <v>347016111</v>
+        <v>2809916</v>
       </c>
       <c r="F4" t="n">
-        <v>209232199</v>
+        <v>927124</v>
       </c>
       <c r="G4" t="n">
-        <v>25500097</v>
+        <v>109553</v>
       </c>
       <c r="H4" t="n">
-        <v>234732296</v>
+        <v>1036677</v>
       </c>
       <c r="I4" t="n">
-        <v>112283815</v>
+        <v>1773239</v>
       </c>
       <c r="J4" t="n">
-        <v>347016111</v>
+        <v>2809916</v>
       </c>
       <c r="K4" t="n">
-        <v>44241606</v>
+        <v>2056608</v>
       </c>
       <c r="L4" t="n">
-        <v>44241606</v>
+        <v>2056608</v>
       </c>
       <c r="M4" t="n">
-        <v>-881247</v>
+        <v>-49781</v>
       </c>
       <c r="N4" t="n">
-        <v>11813345</v>
+        <v>33255</v>
       </c>
       <c r="O4" t="n">
-        <v>-0.43</v>
+        <v>-20.27</v>
       </c>
       <c r="P4" t="n">
-        <v>1.17</v>
+        <v>2.94</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.54</v>
+        <v>4.65</v>
       </c>
       <c r="R4" t="n">
-        <v>4.28</v>
+        <v>34.82</v>
       </c>
       <c r="S4" t="n">
-        <v>1.44</v>
+        <v>-16.24</v>
       </c>
       <c r="T4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>1</v>
@@ -791,320 +791,320 @@
         <v>1</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2331</t>
+          <t>2324</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>20161230</v>
       </c>
       <c r="C5" t="n">
-        <v>16383504</v>
+        <v>300469007</v>
       </c>
       <c r="D5" t="n">
-        <v>7001020</v>
+        <v>46547104</v>
       </c>
       <c r="E5" t="n">
-        <v>23384524</v>
+        <v>347016111</v>
       </c>
       <c r="F5" t="n">
-        <v>10710784</v>
+        <v>209232199</v>
       </c>
       <c r="G5" t="n">
-        <v>698150</v>
+        <v>25500097</v>
       </c>
       <c r="H5" t="n">
-        <v>11408934</v>
+        <v>234732296</v>
       </c>
       <c r="I5" t="n">
-        <v>11975590</v>
+        <v>112283815</v>
       </c>
       <c r="J5" t="n">
-        <v>23384524</v>
+        <v>347016111</v>
       </c>
       <c r="K5" t="n">
-        <v>5574030</v>
+        <v>44241606</v>
       </c>
       <c r="L5" t="n">
-        <v>5574030</v>
+        <v>44241606</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>-881247</v>
       </c>
       <c r="N5" t="n">
-        <v>-1335092</v>
+        <v>11813345</v>
       </c>
       <c r="O5" t="n">
-        <v>-179.09</v>
+        <v>-0.43</v>
       </c>
       <c r="P5" t="n">
-        <v>-2.93</v>
+        <v>1.17</v>
       </c>
       <c r="Q5" t="n">
-        <v>-4.46</v>
+        <v>1.54</v>
       </c>
       <c r="R5" t="n">
-        <v>14.18</v>
+        <v>4.28</v>
       </c>
       <c r="S5" t="n">
-        <v>-5.98</v>
+        <v>1.44</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2352</t>
+          <t>2331</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>20161230</v>
       </c>
       <c r="C6" t="n">
-        <v>52268180</v>
+        <v>16383504</v>
       </c>
       <c r="D6" t="n">
-        <v>43044030</v>
+        <v>7001020</v>
       </c>
       <c r="E6" t="n">
-        <v>95312210</v>
+        <v>23384524</v>
       </c>
       <c r="F6" t="n">
-        <v>50629405</v>
+        <v>10710784</v>
       </c>
       <c r="G6" t="n">
-        <v>11737474</v>
+        <v>698150</v>
       </c>
       <c r="H6" t="n">
-        <v>62366879</v>
+        <v>11408934</v>
       </c>
       <c r="I6" t="n">
-        <v>32945331</v>
+        <v>11975590</v>
       </c>
       <c r="J6" t="n">
-        <v>95312210</v>
+        <v>23384524</v>
       </c>
       <c r="K6" t="n">
-        <v>19667820</v>
+        <v>5574030</v>
       </c>
       <c r="L6" t="n">
-        <v>19667820</v>
+        <v>5574030</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>4843781</v>
+        <v>-1335092</v>
       </c>
       <c r="O6" t="n">
-        <v>81.15000000000001</v>
+        <v>-179.09</v>
       </c>
       <c r="P6" t="n">
-        <v>3.14</v>
+        <v>-2.93</v>
       </c>
       <c r="Q6" t="n">
-        <v>3.74</v>
+        <v>-4.46</v>
       </c>
       <c r="R6" t="n">
-        <v>12.51</v>
+        <v>14.18</v>
       </c>
       <c r="S6" t="n">
-        <v>3.46</v>
+        <v>-5.98</v>
       </c>
       <c r="T6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2353</t>
+          <t>2352</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>20161230</v>
       </c>
       <c r="C7" t="n">
-        <v>133863136</v>
+        <v>52268180</v>
       </c>
       <c r="D7" t="n">
-        <v>31810926</v>
+        <v>43044030</v>
       </c>
       <c r="E7" t="n">
-        <v>165674062</v>
+        <v>95312210</v>
       </c>
       <c r="F7" t="n">
-        <v>105421675</v>
+        <v>50629405</v>
       </c>
       <c r="G7" t="n">
-        <v>2573909</v>
+        <v>11737474</v>
       </c>
       <c r="H7" t="n">
-        <v>107995584</v>
+        <v>62366879</v>
       </c>
       <c r="I7" t="n">
-        <v>57678478</v>
+        <v>32945331</v>
       </c>
       <c r="J7" t="n">
-        <v>165674062</v>
+        <v>95312210</v>
       </c>
       <c r="K7" t="n">
-        <v>30807328</v>
+        <v>19667820</v>
       </c>
       <c r="L7" t="n">
-        <v>30807328</v>
+        <v>19667820</v>
       </c>
       <c r="M7" t="n">
-        <v>-2914856</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>-4724325</v>
+        <v>4843781</v>
       </c>
       <c r="O7" t="n">
-        <v>-911.66</v>
+        <v>81.15000000000001</v>
       </c>
       <c r="P7" t="n">
-        <v>-2.11</v>
+        <v>3.14</v>
       </c>
       <c r="Q7" t="n">
-        <v>-2.03</v>
+        <v>3.74</v>
       </c>
       <c r="R7" t="n">
-        <v>9.970000000000001</v>
+        <v>12.51</v>
       </c>
       <c r="S7" t="n">
-        <v>0.51</v>
+        <v>3.46</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2356</t>
+          <t>2353</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>20161230</v>
       </c>
       <c r="C8" t="n">
-        <v>136793121</v>
+        <v>133863136</v>
       </c>
       <c r="D8" t="n">
-        <v>45580096</v>
+        <v>31810926</v>
       </c>
       <c r="E8" t="n">
-        <v>182373217</v>
+        <v>165674062</v>
       </c>
       <c r="F8" t="n">
-        <v>115082956</v>
+        <v>105421675</v>
       </c>
       <c r="G8" t="n">
-        <v>6782999</v>
+        <v>2573909</v>
       </c>
       <c r="H8" t="n">
-        <v>121865955</v>
+        <v>107995584</v>
       </c>
       <c r="I8" t="n">
-        <v>60507262</v>
+        <v>57678478</v>
       </c>
       <c r="J8" t="n">
-        <v>182373217</v>
+        <v>165674062</v>
       </c>
       <c r="K8" t="n">
-        <v>35874751</v>
+        <v>30807328</v>
       </c>
       <c r="L8" t="n">
-        <v>35874751</v>
+        <v>30807328</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>-2914856</v>
       </c>
       <c r="N8" t="n">
-        <v>7089909</v>
+        <v>-4724325</v>
       </c>
       <c r="O8" t="n">
-        <v>-0.09</v>
+        <v>-911.66</v>
       </c>
       <c r="P8" t="n">
-        <v>1.16</v>
+        <v>-2.11</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.65</v>
+        <v>-2.03</v>
       </c>
       <c r="R8" t="n">
-        <v>5.59</v>
+        <v>9.970000000000001</v>
       </c>
       <c r="S8" t="n">
-        <v>1.91</v>
+        <v>0.51</v>
       </c>
       <c r="T8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1116,156 +1116,156 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2357</t>
+          <t>2356</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>20161230</v>
       </c>
       <c r="C9" t="n">
-        <v>273972099</v>
+        <v>136793121</v>
       </c>
       <c r="D9" t="n">
-        <v>90247827</v>
+        <v>45580096</v>
       </c>
       <c r="E9" t="n">
-        <v>364219926</v>
+        <v>182373217</v>
       </c>
       <c r="F9" t="n">
-        <v>168496912</v>
+        <v>115082956</v>
       </c>
       <c r="G9" t="n">
-        <v>11505800</v>
+        <v>6782999</v>
       </c>
       <c r="H9" t="n">
-        <v>180002712</v>
+        <v>121865955</v>
       </c>
       <c r="I9" t="n">
-        <v>184217214</v>
+        <v>60507262</v>
       </c>
       <c r="J9" t="n">
-        <v>364219926</v>
+        <v>182373217</v>
       </c>
       <c r="K9" t="n">
-        <v>7427603</v>
+        <v>35874751</v>
       </c>
       <c r="L9" t="n">
-        <v>7427603</v>
+        <v>35874751</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>24281949</v>
+        <v>7089909</v>
       </c>
       <c r="O9" t="n">
-        <v>13.49</v>
+        <v>-0.09</v>
       </c>
       <c r="P9" t="n">
-        <v>4.2</v>
+        <v>1.16</v>
       </c>
       <c r="Q9" t="n">
-        <v>5.2</v>
+        <v>1.65</v>
       </c>
       <c r="R9" t="n">
-        <v>14.19</v>
+        <v>5.59</v>
       </c>
       <c r="S9" t="n">
-        <v>4.02</v>
+        <v>1.91</v>
       </c>
       <c r="T9" t="n">
         <v>3</v>
       </c>
       <c r="U9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2362</t>
+          <t>2357</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>20161230</v>
       </c>
       <c r="C10" t="n">
-        <v>23645678</v>
+        <v>273972099</v>
       </c>
       <c r="D10" t="n">
-        <v>89273079</v>
+        <v>90247827</v>
       </c>
       <c r="E10" t="n">
-        <v>112918757</v>
+        <v>364219926</v>
       </c>
       <c r="F10" t="n">
-        <v>22758088</v>
+        <v>168496912</v>
       </c>
       <c r="G10" t="n">
-        <v>46855823</v>
+        <v>11505800</v>
       </c>
       <c r="H10" t="n">
-        <v>69613911</v>
+        <v>180002712</v>
       </c>
       <c r="I10" t="n">
-        <v>43304846</v>
+        <v>184217214</v>
       </c>
       <c r="J10" t="n">
-        <v>112918757</v>
+        <v>364219926</v>
       </c>
       <c r="K10" t="n">
-        <v>6831630</v>
+        <v>7427603</v>
       </c>
       <c r="L10" t="n">
-        <v>6831630</v>
+        <v>7427603</v>
       </c>
       <c r="M10" t="n">
-        <v>-625346</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>1170713</v>
+        <v>24281949</v>
       </c>
       <c r="O10" t="n">
-        <v>-42.24</v>
+        <v>13.49</v>
       </c>
       <c r="P10" t="n">
-        <v>3.02</v>
+        <v>4.2</v>
       </c>
       <c r="Q10" t="n">
-        <v>5.94</v>
+        <v>5.2</v>
       </c>
       <c r="R10" t="n">
-        <v>30.81</v>
+        <v>14.19</v>
       </c>
       <c r="S10" t="n">
-        <v>10.62</v>
+        <v>4.02</v>
       </c>
       <c r="T10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W10" t="n">
         <v>2</v>
       </c>
       <c r="X10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y10" t="n">
         <v>2</v>
@@ -1274,147 +1274,147 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2364</t>
+          <t>2362</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>20161230</v>
       </c>
       <c r="C11" t="n">
-        <v>451255</v>
+        <v>23645678</v>
       </c>
       <c r="D11" t="n">
-        <v>725768</v>
+        <v>89273079</v>
       </c>
       <c r="E11" t="n">
-        <v>1177023</v>
+        <v>112918757</v>
       </c>
       <c r="F11" t="n">
-        <v>734978</v>
+        <v>22758088</v>
       </c>
       <c r="G11" t="n">
-        <v>6321</v>
+        <v>46855823</v>
       </c>
       <c r="H11" t="n">
-        <v>741299</v>
+        <v>69613911</v>
       </c>
       <c r="I11" t="n">
-        <v>435724</v>
+        <v>43304846</v>
       </c>
       <c r="J11" t="n">
-        <v>1177023</v>
+        <v>112918757</v>
       </c>
       <c r="K11" t="n">
-        <v>1189314</v>
+        <v>6831630</v>
       </c>
       <c r="L11" t="n">
-        <v>1189398</v>
+        <v>6831630</v>
       </c>
       <c r="M11" t="n">
-        <v>-202059</v>
+        <v>-625346</v>
       </c>
       <c r="N11" t="n">
-        <v>-176580</v>
+        <v>1170713</v>
       </c>
       <c r="O11" t="n">
-        <v>-0.01</v>
+        <v>-42.24</v>
       </c>
       <c r="P11" t="n">
-        <v>-21.13</v>
+        <v>3.02</v>
       </c>
       <c r="Q11" t="n">
-        <v>-20.87</v>
+        <v>5.94</v>
       </c>
       <c r="R11" t="n">
-        <v>19.88</v>
+        <v>30.81</v>
       </c>
       <c r="S11" t="n">
-        <v>-19.49</v>
+        <v>10.62</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X11" t="n">
         <v>2</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2365</t>
+          <t>2364</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>20161230</v>
       </c>
       <c r="C12" t="n">
-        <v>2793369</v>
+        <v>451255</v>
       </c>
       <c r="D12" t="n">
-        <v>2786644</v>
+        <v>725768</v>
       </c>
       <c r="E12" t="n">
-        <v>5580013</v>
+        <v>1177023</v>
       </c>
       <c r="F12" t="n">
-        <v>1440279</v>
+        <v>734978</v>
       </c>
       <c r="G12" t="n">
-        <v>471139</v>
+        <v>6321</v>
       </c>
       <c r="H12" t="n">
-        <v>1911418</v>
+        <v>741299</v>
       </c>
       <c r="I12" t="n">
-        <v>3668595</v>
+        <v>435724</v>
       </c>
       <c r="J12" t="n">
-        <v>5580013</v>
+        <v>1177023</v>
       </c>
       <c r="K12" t="n">
-        <v>2820985</v>
+        <v>1189314</v>
       </c>
       <c r="L12" t="n">
-        <v>2820985</v>
+        <v>1189398</v>
       </c>
       <c r="M12" t="n">
-        <v>-237407</v>
+        <v>-202059</v>
       </c>
       <c r="N12" t="n">
-        <v>-275976</v>
+        <v>-176580</v>
       </c>
       <c r="O12" t="n">
-        <v>-446.48</v>
+        <v>-0.01</v>
       </c>
       <c r="P12" t="n">
-        <v>-8.609999999999999</v>
+        <v>-21.13</v>
       </c>
       <c r="Q12" t="n">
-        <v>-7.56</v>
+        <v>-20.87</v>
       </c>
       <c r="R12" t="n">
-        <v>18.91</v>
+        <v>19.88</v>
       </c>
       <c r="S12" t="n">
-        <v>-4.48</v>
+        <v>-19.49</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -1432,141 +1432,141 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2376</t>
+          <t>2365</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>20161230</v>
       </c>
       <c r="C13" t="n">
-        <v>30955717</v>
+        <v>2793369</v>
       </c>
       <c r="D13" t="n">
-        <v>5268333</v>
+        <v>2786644</v>
       </c>
       <c r="E13" t="n">
-        <v>36224050</v>
+        <v>5580013</v>
       </c>
       <c r="F13" t="n">
-        <v>12651024</v>
+        <v>1440279</v>
       </c>
       <c r="G13" t="n">
-        <v>604083</v>
+        <v>471139</v>
       </c>
       <c r="H13" t="n">
-        <v>13255107</v>
+        <v>1911418</v>
       </c>
       <c r="I13" t="n">
-        <v>22968943</v>
+        <v>3668595</v>
       </c>
       <c r="J13" t="n">
-        <v>36224050</v>
+        <v>5580013</v>
       </c>
       <c r="K13" t="n">
-        <v>6291179</v>
+        <v>2820985</v>
       </c>
       <c r="L13" t="n">
-        <v>6291179</v>
+        <v>2820985</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>-237407</v>
       </c>
       <c r="N13" t="n">
-        <v>2962321</v>
+        <v>-275976</v>
       </c>
       <c r="O13" t="n">
-        <v>18.81</v>
+        <v>-446.48</v>
       </c>
       <c r="P13" t="n">
-        <v>4.36</v>
+        <v>-8.609999999999999</v>
       </c>
       <c r="Q13" t="n">
-        <v>5.66</v>
+        <v>-7.56</v>
       </c>
       <c r="R13" t="n">
-        <v>17.33</v>
+        <v>18.91</v>
       </c>
       <c r="S13" t="n">
-        <v>3.23</v>
+        <v>-4.48</v>
       </c>
       <c r="T13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>1</v>
       </c>
       <c r="Y13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2377</t>
+          <t>2376</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>20161230</v>
       </c>
       <c r="C14" t="n">
-        <v>44556225</v>
+        <v>30955717</v>
       </c>
       <c r="D14" t="n">
-        <v>5911559</v>
+        <v>5268333</v>
       </c>
       <c r="E14" t="n">
-        <v>50467784</v>
+        <v>36224050</v>
       </c>
       <c r="F14" t="n">
-        <v>23193111</v>
+        <v>12651024</v>
       </c>
       <c r="G14" t="n">
-        <v>384175</v>
+        <v>604083</v>
       </c>
       <c r="H14" t="n">
-        <v>23577286</v>
+        <v>13255107</v>
       </c>
       <c r="I14" t="n">
-        <v>26890498</v>
+        <v>22968943</v>
       </c>
       <c r="J14" t="n">
-        <v>50467784</v>
+        <v>36224050</v>
       </c>
       <c r="K14" t="n">
-        <v>8448562</v>
+        <v>6291179</v>
       </c>
       <c r="L14" t="n">
-        <v>8448562</v>
+        <v>6291179</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>5822172</v>
+        <v>2962321</v>
       </c>
       <c r="O14" t="n">
-        <v>31.88</v>
+        <v>18.81</v>
       </c>
       <c r="P14" t="n">
-        <v>4.78</v>
+        <v>4.36</v>
       </c>
       <c r="Q14" t="n">
-        <v>5.7</v>
+        <v>5.66</v>
       </c>
       <c r="R14" t="n">
-        <v>14.63</v>
+        <v>17.33</v>
       </c>
       <c r="S14" t="n">
-        <v>5.4</v>
+        <v>3.23</v>
       </c>
       <c r="T14" t="n">
         <v>3</v>
@@ -1584,390 +1584,390 @@
         <v>1</v>
       </c>
       <c r="Y14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2380</t>
+          <t>2377</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>20161230</v>
       </c>
       <c r="C15" t="n">
-        <v>2211939</v>
+        <v>44556225</v>
       </c>
       <c r="D15" t="n">
-        <v>1445808</v>
+        <v>5911559</v>
       </c>
       <c r="E15" t="n">
-        <v>3657747</v>
+        <v>50467784</v>
       </c>
       <c r="F15" t="n">
-        <v>672771</v>
+        <v>23193111</v>
       </c>
       <c r="G15" t="n">
-        <v>195296</v>
+        <v>384175</v>
       </c>
       <c r="H15" t="n">
-        <v>868067</v>
+        <v>23577286</v>
       </c>
       <c r="I15" t="n">
-        <v>2789680</v>
+        <v>26890498</v>
       </c>
       <c r="J15" t="n">
-        <v>3657747</v>
+        <v>50467784</v>
       </c>
       <c r="K15" t="n">
-        <v>2082209</v>
+        <v>8448562</v>
       </c>
       <c r="L15" t="n">
-        <v>2082209</v>
+        <v>8448562</v>
       </c>
       <c r="M15" t="n">
-        <v>-8548</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>-229138</v>
+        <v>5822172</v>
       </c>
       <c r="O15" t="n">
-        <v>-39.22</v>
+        <v>31.88</v>
       </c>
       <c r="P15" t="n">
-        <v>-13.37</v>
+        <v>4.78</v>
       </c>
       <c r="Q15" t="n">
-        <v>-10.09</v>
+        <v>5.7</v>
       </c>
       <c r="R15" t="n">
-        <v>30.32</v>
+        <v>14.63</v>
       </c>
       <c r="S15" t="n">
-        <v>-11.45</v>
+        <v>5.4</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2382</t>
+          <t>2380</t>
         </is>
       </c>
       <c r="B16" t="n">
         <v>20161230</v>
       </c>
       <c r="C16" t="n">
-        <v>532426459</v>
+        <v>2211939</v>
       </c>
       <c r="D16" t="n">
-        <v>55003602</v>
+        <v>1445808</v>
       </c>
       <c r="E16" t="n">
-        <v>587430061</v>
+        <v>3657747</v>
       </c>
       <c r="F16" t="n">
-        <v>427133839</v>
+        <v>672771</v>
       </c>
       <c r="G16" t="n">
-        <v>20579436</v>
+        <v>195296</v>
       </c>
       <c r="H16" t="n">
-        <v>447713275</v>
+        <v>868067</v>
       </c>
       <c r="I16" t="n">
-        <v>139716786</v>
+        <v>2789680</v>
       </c>
       <c r="J16" t="n">
-        <v>587430061</v>
+        <v>3657747</v>
       </c>
       <c r="K16" t="n">
-        <v>38626274</v>
+        <v>2082209</v>
       </c>
       <c r="L16" t="n">
-        <v>38626274</v>
+        <v>2082209</v>
       </c>
       <c r="M16" t="n">
-        <v>-333094</v>
+        <v>-8548</v>
       </c>
       <c r="N16" t="n">
-        <v>20340575</v>
+        <v>-229138</v>
       </c>
       <c r="O16" t="n">
-        <v>-13.18</v>
+        <v>-39.22</v>
       </c>
       <c r="P16" t="n">
-        <v>1.72</v>
+        <v>-13.37</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.28</v>
+        <v>-10.09</v>
       </c>
       <c r="R16" t="n">
-        <v>5.21</v>
+        <v>30.32</v>
       </c>
       <c r="S16" t="n">
-        <v>2.14</v>
+        <v>-11.45</v>
       </c>
       <c r="T16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2387</t>
+          <t>2382</t>
         </is>
       </c>
       <c r="B17" t="n">
         <v>20161230</v>
       </c>
       <c r="C17" t="n">
-        <v>9848433</v>
+        <v>532426459</v>
       </c>
       <c r="D17" t="n">
-        <v>4009373</v>
+        <v>55003602</v>
       </c>
       <c r="E17" t="n">
-        <v>13857806</v>
+        <v>587430061</v>
       </c>
       <c r="F17" t="n">
-        <v>5307198</v>
+        <v>427133839</v>
       </c>
       <c r="G17" t="n">
-        <v>250211</v>
+        <v>20579436</v>
       </c>
       <c r="H17" t="n">
-        <v>5557409</v>
+        <v>447713275</v>
       </c>
       <c r="I17" t="n">
-        <v>8300397</v>
+        <v>139716786</v>
       </c>
       <c r="J17" t="n">
-        <v>13857806</v>
+        <v>587430061</v>
       </c>
       <c r="K17" t="n">
-        <v>2632102</v>
+        <v>38626274</v>
       </c>
       <c r="L17" t="n">
-        <v>2632102</v>
+        <v>38626274</v>
       </c>
       <c r="M17" t="n">
-        <v>-133419</v>
+        <v>-333094</v>
       </c>
       <c r="N17" t="n">
-        <v>994868</v>
+        <v>20340575</v>
       </c>
       <c r="O17" t="n">
-        <v>-31.83</v>
+        <v>-13.18</v>
       </c>
       <c r="P17" t="n">
-        <v>4.11</v>
+        <v>1.72</v>
       </c>
       <c r="Q17" t="n">
-        <v>7.36</v>
+        <v>2.28</v>
       </c>
       <c r="R17" t="n">
-        <v>15.25</v>
+        <v>5.21</v>
       </c>
       <c r="S17" t="n">
-        <v>5.68</v>
+        <v>2.14</v>
       </c>
       <c r="T17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2395</t>
+          <t>2387</t>
         </is>
       </c>
       <c r="B18" t="n">
         <v>20161230</v>
       </c>
       <c r="C18" t="n">
-        <v>21181711</v>
+        <v>9848433</v>
       </c>
       <c r="D18" t="n">
-        <v>17357242</v>
+        <v>4009373</v>
       </c>
       <c r="E18" t="n">
-        <v>38538953</v>
+        <v>13857806</v>
       </c>
       <c r="F18" t="n">
-        <v>11435611</v>
+        <v>5307198</v>
       </c>
       <c r="G18" t="n">
-        <v>1716445</v>
+        <v>250211</v>
       </c>
       <c r="H18" t="n">
-        <v>13152056</v>
+        <v>5557409</v>
       </c>
       <c r="I18" t="n">
-        <v>25386897</v>
+        <v>8300397</v>
       </c>
       <c r="J18" t="n">
-        <v>38538953</v>
+        <v>13857806</v>
       </c>
       <c r="K18" t="n">
-        <v>6330741</v>
+        <v>2632102</v>
       </c>
       <c r="L18" t="n">
-        <v>6330841</v>
+        <v>2632102</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>-133419</v>
       </c>
       <c r="N18" t="n">
-        <v>7097365</v>
+        <v>994868</v>
       </c>
       <c r="O18" t="n">
-        <v>10.96</v>
+        <v>-31.83</v>
       </c>
       <c r="P18" t="n">
-        <v>13.54</v>
+        <v>4.11</v>
       </c>
       <c r="Q18" t="n">
-        <v>16.9</v>
+        <v>7.36</v>
       </c>
       <c r="R18" t="n">
-        <v>40.75</v>
+        <v>15.25</v>
       </c>
       <c r="S18" t="n">
-        <v>15.79</v>
+        <v>5.68</v>
       </c>
       <c r="T18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Y18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2397</t>
+          <t>2395</t>
         </is>
       </c>
       <c r="B19" t="n">
         <v>20161230</v>
       </c>
       <c r="C19" t="n">
-        <v>3221849</v>
+        <v>21181711</v>
       </c>
       <c r="D19" t="n">
-        <v>876056</v>
+        <v>17357242</v>
       </c>
       <c r="E19" t="n">
-        <v>4097905</v>
+        <v>38538953</v>
       </c>
       <c r="F19" t="n">
-        <v>799195</v>
+        <v>11435611</v>
       </c>
       <c r="G19" t="n">
-        <v>87778</v>
+        <v>1716445</v>
       </c>
       <c r="H19" t="n">
-        <v>886973</v>
+        <v>13152056</v>
       </c>
       <c r="I19" t="n">
-        <v>3210932</v>
+        <v>25386897</v>
       </c>
       <c r="J19" t="n">
-        <v>4097905</v>
+        <v>38538953</v>
       </c>
       <c r="K19" t="n">
-        <v>1148399</v>
+        <v>6330741</v>
       </c>
       <c r="L19" t="n">
-        <v>1148399</v>
+        <v>6330841</v>
       </c>
       <c r="M19" t="n">
-        <v>-5349</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>661398</v>
+        <v>7097365</v>
       </c>
       <c r="O19" t="n">
-        <v>46.7</v>
+        <v>10.96</v>
       </c>
       <c r="P19" t="n">
-        <v>13.77</v>
+        <v>13.54</v>
       </c>
       <c r="Q19" t="n">
-        <v>17.3</v>
+        <v>16.9</v>
       </c>
       <c r="R19" t="n">
-        <v>33.03</v>
+        <v>40.75</v>
       </c>
       <c r="S19" t="n">
-        <v>17.07</v>
+        <v>15.79</v>
       </c>
       <c r="T19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V19" t="n">
         <v>3</v>
@@ -1985,141 +1985,141 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2399</t>
+          <t>2397</t>
         </is>
       </c>
       <c r="B20" t="n">
         <v>20161230</v>
       </c>
       <c r="C20" t="n">
-        <v>2613024</v>
+        <v>3221849</v>
       </c>
       <c r="D20" t="n">
-        <v>560044</v>
+        <v>876056</v>
       </c>
       <c r="E20" t="n">
-        <v>3173068</v>
+        <v>4097905</v>
       </c>
       <c r="F20" t="n">
-        <v>808596</v>
+        <v>799195</v>
       </c>
       <c r="G20" t="n">
-        <v>74112</v>
+        <v>87778</v>
       </c>
       <c r="H20" t="n">
-        <v>882708</v>
+        <v>886973</v>
       </c>
       <c r="I20" t="n">
-        <v>2290360</v>
+        <v>3210932</v>
       </c>
       <c r="J20" t="n">
-        <v>3173068</v>
+        <v>4097905</v>
       </c>
       <c r="K20" t="n">
-        <v>1781000</v>
+        <v>1148399</v>
       </c>
       <c r="L20" t="n">
-        <v>1781000</v>
+        <v>1148399</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>-5349</v>
       </c>
       <c r="N20" t="n">
-        <v>-24185</v>
+        <v>661398</v>
       </c>
       <c r="O20" t="n">
-        <v>68.54000000000001</v>
+        <v>46.7</v>
       </c>
       <c r="P20" t="n">
-        <v>-1.09</v>
+        <v>13.77</v>
       </c>
       <c r="Q20" t="n">
-        <v>-0.8100000000000001</v>
+        <v>17.3</v>
       </c>
       <c r="R20" t="n">
-        <v>11.58</v>
+        <v>33.03</v>
       </c>
       <c r="S20" t="n">
-        <v>-1.89</v>
+        <v>17.07</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2405</t>
+          <t>2399</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>20161230</v>
       </c>
       <c r="C21" t="n">
-        <v>4276921</v>
+        <v>2613024</v>
       </c>
       <c r="D21" t="n">
-        <v>737829</v>
+        <v>560044</v>
       </c>
       <c r="E21" t="n">
-        <v>5014750</v>
+        <v>3173068</v>
       </c>
       <c r="F21" t="n">
-        <v>1207625</v>
+        <v>808596</v>
       </c>
       <c r="G21" t="n">
-        <v>75273</v>
+        <v>74112</v>
       </c>
       <c r="H21" t="n">
-        <v>1282898</v>
+        <v>882708</v>
       </c>
       <c r="I21" t="n">
-        <v>3731852</v>
+        <v>2290360</v>
       </c>
       <c r="J21" t="n">
-        <v>5014750</v>
+        <v>3173068</v>
       </c>
       <c r="K21" t="n">
-        <v>3482273</v>
+        <v>1781000</v>
       </c>
       <c r="L21" t="n">
-        <v>3482273</v>
+        <v>1781000</v>
       </c>
       <c r="M21" t="n">
-        <v>-87196</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>-87809</v>
+        <v>-24185</v>
       </c>
       <c r="O21" t="n">
-        <v>54.26</v>
+        <v>68.54000000000001</v>
       </c>
       <c r="P21" t="n">
-        <v>-2.37</v>
+        <v>-1.09</v>
       </c>
       <c r="Q21" t="n">
-        <v>-2.1</v>
+        <v>-0.8100000000000001</v>
       </c>
       <c r="R21" t="n">
-        <v>19.6</v>
+        <v>11.58</v>
       </c>
       <c r="S21" t="n">
-        <v>0.19</v>
+        <v>-1.89</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2143,62 +2143,62 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2417</t>
+          <t>2405</t>
         </is>
       </c>
       <c r="B22" t="n">
         <v>20161230</v>
       </c>
       <c r="C22" t="n">
-        <v>2732092</v>
+        <v>4276921</v>
       </c>
       <c r="D22" t="n">
-        <v>2162631</v>
+        <v>737829</v>
       </c>
       <c r="E22" t="n">
-        <v>4894723</v>
+        <v>5014750</v>
       </c>
       <c r="F22" t="n">
-        <v>682587</v>
+        <v>1207625</v>
       </c>
       <c r="G22" t="n">
-        <v>32135</v>
+        <v>75273</v>
       </c>
       <c r="H22" t="n">
-        <v>714722</v>
+        <v>1282898</v>
       </c>
       <c r="I22" t="n">
-        <v>4180001</v>
+        <v>3731852</v>
       </c>
       <c r="J22" t="n">
-        <v>4894723</v>
+        <v>5014750</v>
       </c>
       <c r="K22" t="n">
-        <v>1928923</v>
+        <v>3482273</v>
       </c>
       <c r="L22" t="n">
-        <v>1928923</v>
+        <v>3482273</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>-87196</v>
       </c>
       <c r="N22" t="n">
-        <v>-1947</v>
+        <v>-87809</v>
       </c>
       <c r="O22" t="n">
-        <v>89.44</v>
+        <v>54.26</v>
       </c>
       <c r="P22" t="n">
-        <v>-1.21</v>
+        <v>-2.37</v>
       </c>
       <c r="Q22" t="n">
-        <v>-0.08</v>
+        <v>-2.1</v>
       </c>
       <c r="R22" t="n">
-        <v>50.56</v>
+        <v>19.6</v>
       </c>
       <c r="S22" t="n">
-        <v>-0.88</v>
+        <v>0.19</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2213,7 +2213,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2222,305 +2222,305 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2425</t>
+          <t>2417</t>
         </is>
       </c>
       <c r="B23" t="n">
         <v>20161230</v>
       </c>
       <c r="C23" t="n">
-        <v>2201468</v>
+        <v>2732092</v>
       </c>
       <c r="D23" t="n">
-        <v>156134</v>
+        <v>2162631</v>
       </c>
       <c r="E23" t="n">
-        <v>2357602</v>
+        <v>4894723</v>
       </c>
       <c r="F23" t="n">
-        <v>551998</v>
+        <v>682587</v>
       </c>
       <c r="G23" t="n">
-        <v>4326</v>
+        <v>32135</v>
       </c>
       <c r="H23" t="n">
-        <v>556324</v>
+        <v>714722</v>
       </c>
       <c r="I23" t="n">
-        <v>1801278</v>
+        <v>4180001</v>
       </c>
       <c r="J23" t="n">
-        <v>2357602</v>
+        <v>4894723</v>
       </c>
       <c r="K23" t="n">
-        <v>1092488</v>
+        <v>1928923</v>
       </c>
       <c r="L23" t="n">
-        <v>1092488</v>
+        <v>1928923</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>108716</v>
+        <v>-1947</v>
       </c>
       <c r="O23" t="n">
-        <v>-49.85</v>
+        <v>89.44</v>
       </c>
       <c r="P23" t="n">
-        <v>1.37</v>
+        <v>-1.21</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.63</v>
+        <v>-0.08</v>
       </c>
       <c r="R23" t="n">
-        <v>3.6</v>
+        <v>50.56</v>
       </c>
       <c r="S23" t="n">
-        <v>1.65</v>
+        <v>-0.88</v>
       </c>
       <c r="T23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2465</t>
+          <t>2425</t>
         </is>
       </c>
       <c r="B24" t="n">
         <v>20161230</v>
       </c>
       <c r="C24" t="n">
-        <v>903907</v>
+        <v>2201468</v>
       </c>
       <c r="D24" t="n">
-        <v>621206</v>
+        <v>156134</v>
       </c>
       <c r="E24" t="n">
-        <v>1525113</v>
+        <v>2357602</v>
       </c>
       <c r="F24" t="n">
-        <v>942308</v>
+        <v>551998</v>
       </c>
       <c r="G24" t="n">
-        <v>97799</v>
+        <v>4326</v>
       </c>
       <c r="H24" t="n">
-        <v>1040107</v>
+        <v>556324</v>
       </c>
       <c r="I24" t="n">
-        <v>485006</v>
+        <v>1801278</v>
       </c>
       <c r="J24" t="n">
-        <v>1525113</v>
+        <v>2357602</v>
       </c>
       <c r="K24" t="n">
-        <v>1071746</v>
+        <v>1092488</v>
       </c>
       <c r="L24" t="n">
-        <v>1071746</v>
+        <v>1092488</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>-217728</v>
+        <v>108716</v>
       </c>
       <c r="O24" t="n">
-        <v>-585.89</v>
+        <v>-49.85</v>
       </c>
       <c r="P24" t="n">
-        <v>-7.82</v>
+        <v>1.37</v>
       </c>
       <c r="Q24" t="n">
-        <v>-7.87</v>
+        <v>1.63</v>
       </c>
       <c r="R24" t="n">
-        <v>13.24</v>
+        <v>3.6</v>
       </c>
       <c r="S24" t="n">
-        <v>-5.68</v>
+        <v>1.65</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2495</t>
+          <t>2465</t>
         </is>
       </c>
       <c r="B25" t="n">
         <v>20161230</v>
       </c>
       <c r="C25" t="n">
-        <v>4093447</v>
+        <v>903907</v>
       </c>
       <c r="D25" t="n">
-        <v>809746</v>
+        <v>621206</v>
       </c>
       <c r="E25" t="n">
-        <v>4903193</v>
+        <v>1525113</v>
       </c>
       <c r="F25" t="n">
-        <v>565671</v>
+        <v>942308</v>
       </c>
       <c r="G25" t="n">
-        <v>74285</v>
+        <v>97799</v>
       </c>
       <c r="H25" t="n">
-        <v>639956</v>
+        <v>1040107</v>
       </c>
       <c r="I25" t="n">
-        <v>4263237</v>
+        <v>485006</v>
       </c>
       <c r="J25" t="n">
-        <v>4903193</v>
+        <v>1525113</v>
       </c>
       <c r="K25" t="n">
-        <v>2791110</v>
+        <v>1071746</v>
       </c>
       <c r="L25" t="n">
-        <v>2791110</v>
+        <v>1071746</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>340899</v>
+        <v>-217728</v>
       </c>
       <c r="O25" t="n">
-        <v>1.51</v>
+        <v>-585.89</v>
       </c>
       <c r="P25" t="n">
-        <v>15.24</v>
+        <v>-7.82</v>
       </c>
       <c r="Q25" t="n">
-        <v>17.43</v>
+        <v>-7.87</v>
       </c>
       <c r="R25" t="n">
-        <v>47.45</v>
+        <v>13.24</v>
       </c>
       <c r="S25" t="n">
-        <v>12.93</v>
+        <v>-5.68</v>
       </c>
       <c r="T25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>3002</t>
+          <t>2495</t>
         </is>
       </c>
       <c r="B26" t="n">
         <v>20161230</v>
       </c>
       <c r="C26" t="n">
-        <v>1316880</v>
+        <v>4093447</v>
       </c>
       <c r="D26" t="n">
-        <v>309124</v>
+        <v>809746</v>
       </c>
       <c r="E26" t="n">
-        <v>1626004</v>
+        <v>4903193</v>
       </c>
       <c r="F26" t="n">
-        <v>85877</v>
+        <v>565671</v>
       </c>
       <c r="G26" t="n">
-        <v>244843</v>
+        <v>74285</v>
       </c>
       <c r="H26" t="n">
-        <v>330720</v>
+        <v>639956</v>
       </c>
       <c r="I26" t="n">
-        <v>1295284</v>
+        <v>4263237</v>
       </c>
       <c r="J26" t="n">
-        <v>1626004</v>
+        <v>4903193</v>
       </c>
       <c r="K26" t="n">
-        <v>1020000</v>
+        <v>2791110</v>
       </c>
       <c r="L26" t="n">
-        <v>1020000</v>
+        <v>2791110</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>71455</v>
+        <v>340899</v>
       </c>
       <c r="O26" t="n">
-        <v>44.18</v>
+        <v>1.51</v>
       </c>
       <c r="P26" t="n">
-        <v>14.89</v>
+        <v>15.24</v>
       </c>
       <c r="Q26" t="n">
-        <v>17.66</v>
+        <v>17.43</v>
       </c>
       <c r="R26" t="n">
-        <v>35.26</v>
+        <v>47.45</v>
       </c>
       <c r="S26" t="n">
-        <v>9</v>
+        <v>12.93</v>
       </c>
       <c r="T26" t="n">
         <v>1</v>
       </c>
       <c r="U26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V26" t="n">
         <v>3</v>
@@ -2532,74 +2532,74 @@
         <v>3</v>
       </c>
       <c r="Y26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>3005</t>
+          <t>3002</t>
         </is>
       </c>
       <c r="B27" t="n">
         <v>20161230</v>
       </c>
       <c r="C27" t="n">
-        <v>15651090</v>
+        <v>1316880</v>
       </c>
       <c r="D27" t="n">
-        <v>10067939</v>
+        <v>309124</v>
       </c>
       <c r="E27" t="n">
-        <v>25719029</v>
+        <v>1626004</v>
       </c>
       <c r="F27" t="n">
-        <v>8591825</v>
+        <v>85877</v>
       </c>
       <c r="G27" t="n">
-        <v>2026422</v>
+        <v>244843</v>
       </c>
       <c r="H27" t="n">
-        <v>10618247</v>
+        <v>330720</v>
       </c>
       <c r="I27" t="n">
-        <v>15100782</v>
+        <v>1295284</v>
       </c>
       <c r="J27" t="n">
-        <v>25719029</v>
+        <v>1626004</v>
       </c>
       <c r="K27" t="n">
-        <v>5687392</v>
+        <v>1020000</v>
       </c>
       <c r="L27" t="n">
-        <v>5687392</v>
+        <v>1020000</v>
       </c>
       <c r="M27" t="n">
-        <v>-94902</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>2732035</v>
+        <v>71455</v>
       </c>
       <c r="O27" t="n">
-        <v>58.54</v>
+        <v>44.18</v>
       </c>
       <c r="P27" t="n">
-        <v>11.09</v>
+        <v>14.89</v>
       </c>
       <c r="Q27" t="n">
-        <v>13.39</v>
+        <v>17.66</v>
       </c>
       <c r="R27" t="n">
-        <v>27.64</v>
+        <v>35.26</v>
       </c>
       <c r="S27" t="n">
-        <v>10.8</v>
+        <v>9</v>
       </c>
       <c r="T27" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V27" t="n">
         <v>3</v>
@@ -2608,156 +2608,156 @@
         <v>3</v>
       </c>
       <c r="X27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>3013</t>
+          <t>3005</t>
         </is>
       </c>
       <c r="B28" t="n">
         <v>20161230</v>
       </c>
       <c r="C28" t="n">
-        <v>2458237</v>
+        <v>15651090</v>
       </c>
       <c r="D28" t="n">
-        <v>1711258</v>
+        <v>10067939</v>
       </c>
       <c r="E28" t="n">
-        <v>4169495</v>
+        <v>25719029</v>
       </c>
       <c r="F28" t="n">
-        <v>1316145</v>
+        <v>8591825</v>
       </c>
       <c r="G28" t="n">
-        <v>254769</v>
+        <v>2026422</v>
       </c>
       <c r="H28" t="n">
-        <v>1570914</v>
+        <v>10618247</v>
       </c>
       <c r="I28" t="n">
-        <v>2598581</v>
+        <v>15100782</v>
       </c>
       <c r="J28" t="n">
-        <v>4169495</v>
+        <v>25719029</v>
       </c>
       <c r="K28" t="n">
-        <v>1699350</v>
+        <v>5687392</v>
       </c>
       <c r="L28" t="n">
-        <v>1699350</v>
+        <v>5687392</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>-94902</v>
       </c>
       <c r="N28" t="n">
-        <v>298339</v>
+        <v>2732035</v>
       </c>
       <c r="O28" t="n">
-        <v>268.04</v>
+        <v>58.54</v>
       </c>
       <c r="P28" t="n">
-        <v>5.99</v>
+        <v>11.09</v>
       </c>
       <c r="Q28" t="n">
-        <v>6.98</v>
+        <v>13.39</v>
       </c>
       <c r="R28" t="n">
-        <v>14.22</v>
+        <v>27.64</v>
       </c>
       <c r="S28" t="n">
-        <v>6.11</v>
+        <v>10.8</v>
       </c>
       <c r="T28" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U28" t="n">
         <v>3</v>
       </c>
       <c r="V28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>3017</t>
+          <t>3013</t>
         </is>
       </c>
       <c r="B29" t="n">
         <v>20161230</v>
       </c>
       <c r="C29" t="n">
-        <v>19872338</v>
+        <v>2458237</v>
       </c>
       <c r="D29" t="n">
-        <v>7750705</v>
+        <v>1711258</v>
       </c>
       <c r="E29" t="n">
-        <v>27623043</v>
+        <v>4169495</v>
       </c>
       <c r="F29" t="n">
-        <v>14459333</v>
+        <v>1316145</v>
       </c>
       <c r="G29" t="n">
-        <v>4558037</v>
+        <v>254769</v>
       </c>
       <c r="H29" t="n">
-        <v>19017370</v>
+        <v>1570914</v>
       </c>
       <c r="I29" t="n">
-        <v>8605673</v>
+        <v>2598581</v>
       </c>
       <c r="J29" t="n">
-        <v>27623043</v>
+        <v>4169495</v>
       </c>
       <c r="K29" t="n">
-        <v>3533101</v>
+        <v>1699350</v>
       </c>
       <c r="L29" t="n">
-        <v>3533101</v>
+        <v>1699350</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1281074</v>
+        <v>298339</v>
       </c>
       <c r="O29" t="n">
-        <v>25.96</v>
+        <v>268.04</v>
       </c>
       <c r="P29" t="n">
-        <v>3.55</v>
+        <v>5.99</v>
       </c>
       <c r="Q29" t="n">
-        <v>4.83</v>
+        <v>6.98</v>
       </c>
       <c r="R29" t="n">
-        <v>13.94</v>
+        <v>14.22</v>
       </c>
       <c r="S29" t="n">
-        <v>5.42</v>
+        <v>6.11</v>
       </c>
       <c r="T29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V29" t="n">
         <v>2</v>
@@ -2766,7 +2766,7 @@
         <v>2</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y29" t="n">
         <v>2</v>
@@ -2775,220 +2775,220 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>3022</t>
+          <t>3017</t>
         </is>
       </c>
       <c r="B30" t="n">
         <v>20161230</v>
       </c>
       <c r="C30" t="n">
-        <v>7594378</v>
+        <v>19872338</v>
       </c>
       <c r="D30" t="n">
-        <v>4098682</v>
+        <v>7750705</v>
       </c>
       <c r="E30" t="n">
-        <v>11693060</v>
+        <v>27623043</v>
       </c>
       <c r="F30" t="n">
-        <v>3155498</v>
+        <v>14459333</v>
       </c>
       <c r="G30" t="n">
-        <v>619581</v>
+        <v>4558037</v>
       </c>
       <c r="H30" t="n">
-        <v>3775079</v>
+        <v>19017370</v>
       </c>
       <c r="I30" t="n">
-        <v>7917981</v>
+        <v>8605673</v>
       </c>
       <c r="J30" t="n">
-        <v>11693060</v>
+        <v>27623043</v>
       </c>
       <c r="K30" t="n">
-        <v>3283144</v>
+        <v>3533101</v>
       </c>
       <c r="L30" t="n">
-        <v>3283144</v>
+        <v>3533101</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1742713</v>
+        <v>1281074</v>
       </c>
       <c r="O30" t="n">
-        <v>17.18</v>
+        <v>25.96</v>
       </c>
       <c r="P30" t="n">
-        <v>17.89</v>
+        <v>3.55</v>
       </c>
       <c r="Q30" t="n">
-        <v>22.8</v>
+        <v>4.83</v>
       </c>
       <c r="R30" t="n">
-        <v>33.9</v>
+        <v>13.94</v>
       </c>
       <c r="S30" t="n">
-        <v>17.48</v>
+        <v>5.42</v>
       </c>
       <c r="T30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U30" t="n">
         <v>2</v>
       </c>
       <c r="V30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X30" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>3046</t>
+          <t>3022</t>
         </is>
       </c>
       <c r="B31" t="n">
         <v>20161230</v>
       </c>
       <c r="C31" t="n">
-        <v>1004608</v>
+        <v>7594378</v>
       </c>
       <c r="D31" t="n">
-        <v>449276</v>
+        <v>4098682</v>
       </c>
       <c r="E31" t="n">
-        <v>1453884</v>
+        <v>11693060</v>
       </c>
       <c r="F31" t="n">
-        <v>838680</v>
+        <v>3155498</v>
       </c>
       <c r="G31" t="n">
-        <v>94787</v>
+        <v>619581</v>
       </c>
       <c r="H31" t="n">
-        <v>933467</v>
+        <v>3775079</v>
       </c>
       <c r="I31" t="n">
-        <v>520417</v>
+        <v>7917981</v>
       </c>
       <c r="J31" t="n">
-        <v>1453884</v>
+        <v>11693060</v>
       </c>
       <c r="K31" t="n">
-        <v>1164934</v>
+        <v>3283144</v>
       </c>
       <c r="L31" t="n">
-        <v>1164934</v>
+        <v>3283144</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>-322802</v>
+        <v>1742713</v>
       </c>
       <c r="O31" t="n">
-        <v>-107.71</v>
+        <v>17.18</v>
       </c>
       <c r="P31" t="n">
-        <v>-32.04</v>
+        <v>17.89</v>
       </c>
       <c r="Q31" t="n">
-        <v>-28.34</v>
+        <v>22.8</v>
       </c>
       <c r="R31" t="n">
-        <v>22.13</v>
+        <v>33.9</v>
       </c>
       <c r="S31" t="n">
-        <v>-28.98</v>
+        <v>17.48</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>3057</t>
+          <t>3046</t>
         </is>
       </c>
       <c r="B32" t="n">
         <v>20161230</v>
       </c>
       <c r="C32" t="n">
-        <v>1844490</v>
+        <v>1004608</v>
       </c>
       <c r="D32" t="n">
-        <v>911611</v>
+        <v>449276</v>
       </c>
       <c r="E32" t="n">
-        <v>2756101</v>
+        <v>1453884</v>
       </c>
       <c r="F32" t="n">
-        <v>809423</v>
+        <v>838680</v>
       </c>
       <c r="G32" t="n">
-        <v>49277</v>
+        <v>94787</v>
       </c>
       <c r="H32" t="n">
-        <v>858700</v>
+        <v>933467</v>
       </c>
       <c r="I32" t="n">
-        <v>1897401</v>
+        <v>520417</v>
       </c>
       <c r="J32" t="n">
-        <v>2756101</v>
+        <v>1453884</v>
       </c>
       <c r="K32" t="n">
-        <v>1623052</v>
+        <v>1164934</v>
       </c>
       <c r="L32" t="n">
-        <v>1623052</v>
+        <v>1164934</v>
       </c>
       <c r="M32" t="n">
-        <v>-35750</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>-312126</v>
+        <v>-322802</v>
       </c>
       <c r="O32" t="n">
-        <v>-523.04</v>
+        <v>-107.71</v>
       </c>
       <c r="P32" t="n">
-        <v>-12.28</v>
+        <v>-32.04</v>
       </c>
       <c r="Q32" t="n">
-        <v>-11.68</v>
+        <v>-28.34</v>
       </c>
       <c r="R32" t="n">
-        <v>40.01</v>
+        <v>22.13</v>
       </c>
       <c r="S32" t="n">
-        <v>-7.23</v>
+        <v>-28.98</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3003,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3012,159 +3012,159 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>3060</t>
+          <t>3057</t>
         </is>
       </c>
       <c r="B33" t="n">
         <v>20161230</v>
       </c>
       <c r="C33" t="n">
-        <v>5488279</v>
+        <v>1844490</v>
       </c>
       <c r="D33" t="n">
-        <v>2594681</v>
+        <v>911611</v>
       </c>
       <c r="E33" t="n">
-        <v>8082960</v>
+        <v>2756101</v>
       </c>
       <c r="F33" t="n">
-        <v>2619474</v>
+        <v>809423</v>
       </c>
       <c r="G33" t="n">
-        <v>662202</v>
+        <v>49277</v>
       </c>
       <c r="H33" t="n">
-        <v>3281676</v>
+        <v>858700</v>
       </c>
       <c r="I33" t="n">
-        <v>4801284</v>
+        <v>1897401</v>
       </c>
       <c r="J33" t="n">
-        <v>8082960</v>
+        <v>2756101</v>
       </c>
       <c r="K33" t="n">
-        <v>1742020</v>
+        <v>1623052</v>
       </c>
       <c r="L33" t="n">
-        <v>1742020</v>
+        <v>1623052</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>-35750</v>
       </c>
       <c r="N33" t="n">
-        <v>364146</v>
+        <v>-312126</v>
       </c>
       <c r="O33" t="n">
-        <v>-71.04000000000001</v>
+        <v>-523.04</v>
       </c>
       <c r="P33" t="n">
-        <v>2.78</v>
+        <v>-12.28</v>
       </c>
       <c r="Q33" t="n">
-        <v>4.35</v>
+        <v>-11.68</v>
       </c>
       <c r="R33" t="n">
-        <v>12.13</v>
+        <v>40.01</v>
       </c>
       <c r="S33" t="n">
-        <v>3.56</v>
+        <v>-7.23</v>
       </c>
       <c r="T33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>3231</t>
+          <t>3060</t>
         </is>
       </c>
       <c r="B34" t="n">
         <v>20161230</v>
       </c>
       <c r="C34" t="n">
-        <v>225656731</v>
+        <v>5488279</v>
       </c>
       <c r="D34" t="n">
-        <v>57098827</v>
+        <v>2594681</v>
       </c>
       <c r="E34" t="n">
-        <v>282755558</v>
+        <v>8082960</v>
       </c>
       <c r="F34" t="n">
-        <v>197453207</v>
+        <v>2619474</v>
       </c>
       <c r="G34" t="n">
-        <v>17333902</v>
+        <v>662202</v>
       </c>
       <c r="H34" t="n">
-        <v>214787109</v>
+        <v>3281676</v>
       </c>
       <c r="I34" t="n">
-        <v>67968449</v>
+        <v>4801284</v>
       </c>
       <c r="J34" t="n">
-        <v>282755558</v>
+        <v>8082960</v>
       </c>
       <c r="K34" t="n">
-        <v>26503165</v>
+        <v>1742020</v>
       </c>
       <c r="L34" t="n">
-        <v>26503165</v>
+        <v>1742020</v>
       </c>
       <c r="M34" t="n">
-        <v>-2592278</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>4757100</v>
+        <v>364146</v>
       </c>
       <c r="O34" t="n">
-        <v>135.5</v>
+        <v>-71.04000000000001</v>
       </c>
       <c r="P34" t="n">
-        <v>0.45</v>
+        <v>2.78</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.72</v>
+        <v>4.35</v>
       </c>
       <c r="R34" t="n">
-        <v>4.8</v>
+        <v>12.13</v>
       </c>
       <c r="S34" t="n">
-        <v>0.91</v>
+        <v>3.56</v>
       </c>
       <c r="T34" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U34" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35">
@@ -3565,65 +3565,65 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>3706</t>
+          <t>4916</t>
         </is>
       </c>
       <c r="B40" t="n">
         <v>20161230</v>
       </c>
       <c r="C40" t="n">
-        <v>25553342</v>
+        <v>1376592</v>
       </c>
       <c r="D40" t="n">
-        <v>24510596</v>
+        <v>1294090</v>
       </c>
       <c r="E40" t="n">
-        <v>50063938</v>
+        <v>2670682</v>
       </c>
       <c r="F40" t="n">
-        <v>14887395</v>
+        <v>1125780</v>
       </c>
       <c r="G40" t="n">
-        <v>660130</v>
+        <v>351593</v>
       </c>
       <c r="H40" t="n">
-        <v>15547525</v>
+        <v>1477373</v>
       </c>
       <c r="I40" t="n">
-        <v>34516413</v>
+        <v>1193309</v>
       </c>
       <c r="J40" t="n">
-        <v>50063938</v>
+        <v>2670682</v>
       </c>
       <c r="K40" t="n">
-        <v>8156048</v>
+        <v>708990</v>
       </c>
       <c r="L40" t="n">
-        <v>8156048</v>
+        <v>708990</v>
       </c>
       <c r="M40" t="n">
-        <v>-522449</v>
+        <v>-51844</v>
       </c>
       <c r="N40" t="n">
-        <v>3060937</v>
+        <v>155948</v>
       </c>
       <c r="O40" t="n">
-        <v>54.98</v>
+        <v>633.23</v>
       </c>
       <c r="P40" t="n">
-        <v>5.62</v>
+        <v>6.05</v>
       </c>
       <c r="Q40" t="n">
-        <v>6.33</v>
+        <v>6.65</v>
       </c>
       <c r="R40" t="n">
-        <v>11.49</v>
+        <v>20.18</v>
       </c>
       <c r="S40" t="n">
-        <v>1.41</v>
+        <v>6.55</v>
       </c>
       <c r="T40" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U40" t="n">
         <v>3</v>
@@ -3635,630 +3635,630 @@
         <v>2</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>4916</t>
+          <t>4938</t>
         </is>
       </c>
       <c r="B41" t="n">
         <v>20161230</v>
       </c>
       <c r="C41" t="n">
-        <v>1376592</v>
+        <v>364225586</v>
       </c>
       <c r="D41" t="n">
-        <v>1294090</v>
+        <v>79719647</v>
       </c>
       <c r="E41" t="n">
-        <v>2670682</v>
+        <v>443945233</v>
       </c>
       <c r="F41" t="n">
-        <v>1125780</v>
+        <v>254236823</v>
       </c>
       <c r="G41" t="n">
-        <v>351593</v>
+        <v>7686209</v>
       </c>
       <c r="H41" t="n">
-        <v>1477373</v>
+        <v>261923032</v>
       </c>
       <c r="I41" t="n">
-        <v>1193309</v>
+        <v>182022201</v>
       </c>
       <c r="J41" t="n">
-        <v>2670682</v>
+        <v>443945233</v>
       </c>
       <c r="K41" t="n">
-        <v>708990</v>
+        <v>25751695</v>
       </c>
       <c r="L41" t="n">
-        <v>708990</v>
+        <v>25751695</v>
       </c>
       <c r="M41" t="n">
-        <v>-51844</v>
+        <v>-2246</v>
       </c>
       <c r="N41" t="n">
-        <v>155948</v>
+        <v>29079670</v>
       </c>
       <c r="O41" t="n">
-        <v>633.23</v>
+        <v>-23.33</v>
       </c>
       <c r="P41" t="n">
-        <v>6.05</v>
+        <v>1.91</v>
       </c>
       <c r="Q41" t="n">
-        <v>6.65</v>
+        <v>2.51</v>
       </c>
       <c r="R41" t="n">
-        <v>20.18</v>
+        <v>5.45</v>
       </c>
       <c r="S41" t="n">
-        <v>6.55</v>
+        <v>2.8</v>
       </c>
       <c r="T41" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U41" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>4938</t>
+          <t>5215</t>
         </is>
       </c>
       <c r="B42" t="n">
         <v>20161230</v>
       </c>
       <c r="C42" t="n">
-        <v>364225586</v>
+        <v>1880390</v>
       </c>
       <c r="D42" t="n">
-        <v>79719647</v>
+        <v>676133</v>
       </c>
       <c r="E42" t="n">
-        <v>443945233</v>
+        <v>2556523</v>
       </c>
       <c r="F42" t="n">
-        <v>254236823</v>
+        <v>589167</v>
       </c>
       <c r="G42" t="n">
-        <v>7686209</v>
+        <v>62801</v>
       </c>
       <c r="H42" t="n">
-        <v>261923032</v>
+        <v>651968</v>
       </c>
       <c r="I42" t="n">
-        <v>182022201</v>
+        <v>1904555</v>
       </c>
       <c r="J42" t="n">
-        <v>443945233</v>
+        <v>2556523</v>
       </c>
       <c r="K42" t="n">
-        <v>25751695</v>
+        <v>543375</v>
       </c>
       <c r="L42" t="n">
-        <v>25751695</v>
+        <v>543375</v>
       </c>
       <c r="M42" t="n">
-        <v>-2246</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>29079670</v>
+        <v>166684</v>
       </c>
       <c r="O42" t="n">
-        <v>-23.33</v>
+        <v>-52.12</v>
       </c>
       <c r="P42" t="n">
-        <v>1.91</v>
+        <v>6.61</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.51</v>
+        <v>10.09</v>
       </c>
       <c r="R42" t="n">
-        <v>5.45</v>
+        <v>20.47</v>
       </c>
       <c r="S42" t="n">
-        <v>2.8</v>
+        <v>6.72</v>
       </c>
       <c r="T42" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>5215</t>
+          <t>5258</t>
         </is>
       </c>
       <c r="B43" t="n">
         <v>20161230</v>
       </c>
       <c r="C43" t="n">
-        <v>1880390</v>
+        <v>2606378</v>
       </c>
       <c r="D43" t="n">
-        <v>676133</v>
+        <v>388718</v>
       </c>
       <c r="E43" t="n">
-        <v>2556523</v>
+        <v>2995096</v>
       </c>
       <c r="F43" t="n">
-        <v>589167</v>
+        <v>1256790</v>
       </c>
       <c r="G43" t="n">
-        <v>62801</v>
+        <v>115706</v>
       </c>
       <c r="H43" t="n">
-        <v>651968</v>
+        <v>1372496</v>
       </c>
       <c r="I43" t="n">
-        <v>1904555</v>
+        <v>1622600</v>
       </c>
       <c r="J43" t="n">
-        <v>2556523</v>
+        <v>2995096</v>
       </c>
       <c r="K43" t="n">
-        <v>543375</v>
+        <v>741054</v>
       </c>
       <c r="L43" t="n">
-        <v>543375</v>
+        <v>741054</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>166684</v>
+        <v>396290</v>
       </c>
       <c r="O43" t="n">
-        <v>-52.12</v>
+        <v>179.6</v>
       </c>
       <c r="P43" t="n">
-        <v>6.61</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="Q43" t="n">
-        <v>10.09</v>
+        <v>12.49</v>
       </c>
       <c r="R43" t="n">
-        <v>20.47</v>
+        <v>27.18</v>
       </c>
       <c r="S43" t="n">
-        <v>6.72</v>
+        <v>12.94</v>
       </c>
       <c r="T43" t="n">
         <v>1</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V43" t="n">
         <v>2</v>
       </c>
       <c r="W43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X43" t="n">
         <v>2</v>
       </c>
       <c r="Y43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>5258</t>
+          <t>6117</t>
         </is>
       </c>
       <c r="B44" t="n">
         <v>20161230</v>
       </c>
       <c r="C44" t="n">
-        <v>2606378</v>
+        <v>1609552</v>
       </c>
       <c r="D44" t="n">
-        <v>388718</v>
+        <v>1449720</v>
       </c>
       <c r="E44" t="n">
-        <v>2995096</v>
+        <v>3059272</v>
       </c>
       <c r="F44" t="n">
-        <v>1256790</v>
+        <v>1516875</v>
       </c>
       <c r="G44" t="n">
-        <v>115706</v>
+        <v>43561</v>
       </c>
       <c r="H44" t="n">
-        <v>1372496</v>
+        <v>1560436</v>
       </c>
       <c r="I44" t="n">
-        <v>1622600</v>
+        <v>1498836</v>
       </c>
       <c r="J44" t="n">
-        <v>2995096</v>
+        <v>3059272</v>
       </c>
       <c r="K44" t="n">
-        <v>741054</v>
+        <v>886500</v>
       </c>
       <c r="L44" t="n">
-        <v>741054</v>
+        <v>886500</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>396290</v>
+        <v>-182842</v>
       </c>
       <c r="O44" t="n">
-        <v>179.6</v>
+        <v>21.22</v>
       </c>
       <c r="P44" t="n">
-        <v>9.949999999999999</v>
+        <v>-8.27</v>
       </c>
       <c r="Q44" t="n">
-        <v>12.49</v>
+        <v>-8.23</v>
       </c>
       <c r="R44" t="n">
-        <v>27.18</v>
+        <v>18.05</v>
       </c>
       <c r="S44" t="n">
-        <v>12.94</v>
+        <v>-7.74</v>
       </c>
       <c r="T44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y44" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>6117</t>
+          <t>6128</t>
         </is>
       </c>
       <c r="B45" t="n">
         <v>20161230</v>
       </c>
       <c r="C45" t="n">
-        <v>1609552</v>
+        <v>1353270</v>
       </c>
       <c r="D45" t="n">
-        <v>1449720</v>
+        <v>2303837</v>
       </c>
       <c r="E45" t="n">
-        <v>3059272</v>
+        <v>3657107</v>
       </c>
       <c r="F45" t="n">
-        <v>1516875</v>
+        <v>1515881</v>
       </c>
       <c r="G45" t="n">
-        <v>43561</v>
+        <v>357534</v>
       </c>
       <c r="H45" t="n">
-        <v>1560436</v>
+        <v>1873415</v>
       </c>
       <c r="I45" t="n">
-        <v>1498836</v>
+        <v>1783692</v>
       </c>
       <c r="J45" t="n">
-        <v>3059272</v>
+        <v>3657107</v>
       </c>
       <c r="K45" t="n">
-        <v>886500</v>
+        <v>875887</v>
       </c>
       <c r="L45" t="n">
-        <v>886500</v>
+        <v>875887</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>-182842</v>
+        <v>464990</v>
       </c>
       <c r="O45" t="n">
-        <v>21.22</v>
+        <v>11.7</v>
       </c>
       <c r="P45" t="n">
-        <v>-8.27</v>
+        <v>19.62</v>
       </c>
       <c r="Q45" t="n">
-        <v>-8.23</v>
+        <v>24.24</v>
       </c>
       <c r="R45" t="n">
-        <v>18.05</v>
+        <v>48.38</v>
       </c>
       <c r="S45" t="n">
-        <v>-7.74</v>
+        <v>24.63</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U45" t="n">
         <v>2</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X45" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>6128</t>
+          <t>6166</t>
         </is>
       </c>
       <c r="B46" t="n">
         <v>20161230</v>
       </c>
       <c r="C46" t="n">
-        <v>1353270</v>
+        <v>5803542</v>
       </c>
       <c r="D46" t="n">
-        <v>2303837</v>
+        <v>2266420</v>
       </c>
       <c r="E46" t="n">
-        <v>3657107</v>
+        <v>8069962</v>
       </c>
       <c r="F46" t="n">
-        <v>1515881</v>
+        <v>3131454</v>
       </c>
       <c r="G46" t="n">
-        <v>357534</v>
+        <v>252476</v>
       </c>
       <c r="H46" t="n">
-        <v>1873415</v>
+        <v>3383930</v>
       </c>
       <c r="I46" t="n">
-        <v>1783692</v>
+        <v>4686032</v>
       </c>
       <c r="J46" t="n">
-        <v>3657107</v>
+        <v>8069962</v>
       </c>
       <c r="K46" t="n">
-        <v>875887</v>
+        <v>2175579</v>
       </c>
       <c r="L46" t="n">
-        <v>875887</v>
+        <v>2175619</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>464990</v>
+        <v>531542</v>
       </c>
       <c r="O46" t="n">
-        <v>11.7</v>
+        <v>-29.16</v>
       </c>
       <c r="P46" t="n">
-        <v>19.62</v>
+        <v>4.51</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.24</v>
+        <v>5.55</v>
       </c>
       <c r="R46" t="n">
-        <v>48.38</v>
+        <v>43.54</v>
       </c>
       <c r="S46" t="n">
-        <v>24.63</v>
+        <v>6.23</v>
       </c>
       <c r="T46" t="n">
         <v>2</v>
       </c>
       <c r="U46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X46" t="n">
         <v>3</v>
       </c>
       <c r="Y46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>6166</t>
+          <t>6206</t>
         </is>
       </c>
       <c r="B47" t="n">
         <v>20161230</v>
       </c>
       <c r="C47" t="n">
-        <v>5803542</v>
+        <v>4378175</v>
       </c>
       <c r="D47" t="n">
-        <v>2266420</v>
+        <v>1823192</v>
       </c>
       <c r="E47" t="n">
-        <v>8069962</v>
+        <v>6201367</v>
       </c>
       <c r="F47" t="n">
-        <v>3131454</v>
+        <v>1213092</v>
       </c>
       <c r="G47" t="n">
-        <v>252476</v>
+        <v>134604</v>
       </c>
       <c r="H47" t="n">
-        <v>3383930</v>
+        <v>1347696</v>
       </c>
       <c r="I47" t="n">
-        <v>4686032</v>
+        <v>4853671</v>
       </c>
       <c r="J47" t="n">
-        <v>8069962</v>
+        <v>6201367</v>
       </c>
       <c r="K47" t="n">
-        <v>2175579</v>
+        <v>1463683</v>
       </c>
       <c r="L47" t="n">
-        <v>2175619</v>
+        <v>1463683</v>
       </c>
       <c r="M47" t="n">
         <v>0</v>
       </c>
       <c r="N47" t="n">
-        <v>531542</v>
+        <v>1003480</v>
       </c>
       <c r="O47" t="n">
-        <v>-29.16</v>
+        <v>-16.39</v>
       </c>
       <c r="P47" t="n">
-        <v>4.51</v>
+        <v>15.48</v>
       </c>
       <c r="Q47" t="n">
-        <v>5.55</v>
+        <v>17.81</v>
       </c>
       <c r="R47" t="n">
-        <v>43.54</v>
+        <v>33.61</v>
       </c>
       <c r="S47" t="n">
-        <v>6.23</v>
+        <v>17.44</v>
       </c>
       <c r="T47" t="n">
         <v>2</v>
       </c>
       <c r="U47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X47" t="n">
         <v>3</v>
       </c>
       <c r="Y47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>6206</t>
+          <t>6230</t>
         </is>
       </c>
       <c r="B48" t="n">
         <v>20161230</v>
       </c>
       <c r="C48" t="n">
-        <v>4378175</v>
+        <v>5169344</v>
       </c>
       <c r="D48" t="n">
-        <v>1823192</v>
+        <v>1560836</v>
       </c>
       <c r="E48" t="n">
-        <v>6201367</v>
+        <v>6730180</v>
       </c>
       <c r="F48" t="n">
-        <v>1213092</v>
+        <v>2636903</v>
       </c>
       <c r="G48" t="n">
-        <v>134604</v>
+        <v>311247</v>
       </c>
       <c r="H48" t="n">
-        <v>1347696</v>
+        <v>2948150</v>
       </c>
       <c r="I48" t="n">
-        <v>4853671</v>
+        <v>3782030</v>
       </c>
       <c r="J48" t="n">
-        <v>6201367</v>
+        <v>6730180</v>
       </c>
       <c r="K48" t="n">
-        <v>1463683</v>
+        <v>863434</v>
       </c>
       <c r="L48" t="n">
-        <v>1463683</v>
+        <v>863434</v>
       </c>
       <c r="M48" t="n">
         <v>0</v>
       </c>
       <c r="N48" t="n">
-        <v>1003480</v>
+        <v>1279666</v>
       </c>
       <c r="O48" t="n">
-        <v>-16.39</v>
+        <v>40.97</v>
       </c>
       <c r="P48" t="n">
-        <v>15.48</v>
+        <v>12.96</v>
       </c>
       <c r="Q48" t="n">
-        <v>17.81</v>
+        <v>17.54</v>
       </c>
       <c r="R48" t="n">
-        <v>33.61</v>
+        <v>26.16</v>
       </c>
       <c r="S48" t="n">
-        <v>17.44</v>
+        <v>16.36</v>
       </c>
       <c r="T48" t="n">
         <v>2</v>
       </c>
       <c r="U48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V48" t="n">
         <v>3</v>
@@ -4267,7 +4267,7 @@
         <v>3</v>
       </c>
       <c r="X48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y48" t="n">
         <v>3</v>
@@ -4276,305 +4276,305 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>6230</t>
+          <t>6235</t>
         </is>
       </c>
       <c r="B49" t="n">
         <v>20161230</v>
       </c>
       <c r="C49" t="n">
-        <v>5169344</v>
+        <v>2791194</v>
       </c>
       <c r="D49" t="n">
-        <v>1560836</v>
+        <v>758031</v>
       </c>
       <c r="E49" t="n">
-        <v>6730180</v>
+        <v>3549225</v>
       </c>
       <c r="F49" t="n">
-        <v>2636903</v>
+        <v>998489</v>
       </c>
       <c r="G49" t="n">
-        <v>311247</v>
+        <v>77139</v>
       </c>
       <c r="H49" t="n">
-        <v>2948150</v>
+        <v>1075628</v>
       </c>
       <c r="I49" t="n">
-        <v>3782030</v>
+        <v>2473597</v>
       </c>
       <c r="J49" t="n">
-        <v>6730180</v>
+        <v>3549225</v>
       </c>
       <c r="K49" t="n">
-        <v>863434</v>
+        <v>1635921</v>
       </c>
       <c r="L49" t="n">
-        <v>863434</v>
+        <v>1642957</v>
       </c>
       <c r="M49" t="n">
         <v>0</v>
       </c>
       <c r="N49" t="n">
-        <v>1279666</v>
+        <v>50617</v>
       </c>
       <c r="O49" t="n">
-        <v>40.97</v>
+        <v>2701.52</v>
       </c>
       <c r="P49" t="n">
-        <v>12.96</v>
+        <v>58.51</v>
       </c>
       <c r="Q49" t="n">
-        <v>17.54</v>
+        <v>2.23</v>
       </c>
       <c r="R49" t="n">
-        <v>26.16</v>
+        <v>17.75</v>
       </c>
       <c r="S49" t="n">
-        <v>16.36</v>
+        <v>1.13</v>
       </c>
       <c r="T49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V49" t="n">
         <v>3</v>
       </c>
       <c r="W49" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y49" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>6235</t>
+          <t>6277</t>
         </is>
       </c>
       <c r="B50" t="n">
         <v>20161230</v>
       </c>
       <c r="C50" t="n">
-        <v>2791194</v>
+        <v>3206670</v>
       </c>
       <c r="D50" t="n">
-        <v>758031</v>
+        <v>2544000</v>
       </c>
       <c r="E50" t="n">
-        <v>3549225</v>
+        <v>5750670</v>
       </c>
       <c r="F50" t="n">
-        <v>998489</v>
+        <v>1647471</v>
       </c>
       <c r="G50" t="n">
-        <v>77139</v>
+        <v>392834</v>
       </c>
       <c r="H50" t="n">
-        <v>1075628</v>
+        <v>2040305</v>
       </c>
       <c r="I50" t="n">
-        <v>2473597</v>
+        <v>3710365</v>
       </c>
       <c r="J50" t="n">
-        <v>3549225</v>
+        <v>5750670</v>
       </c>
       <c r="K50" t="n">
-        <v>1635921</v>
+        <v>1194711</v>
       </c>
       <c r="L50" t="n">
-        <v>1642957</v>
+        <v>1194711</v>
       </c>
       <c r="M50" t="n">
         <v>0</v>
       </c>
       <c r="N50" t="n">
-        <v>50617</v>
+        <v>1008218</v>
       </c>
       <c r="O50" t="n">
-        <v>2701.52</v>
+        <v>10.59</v>
       </c>
       <c r="P50" t="n">
-        <v>58.51</v>
+        <v>16.12</v>
       </c>
       <c r="Q50" t="n">
-        <v>2.23</v>
+        <v>20.43</v>
       </c>
       <c r="R50" t="n">
-        <v>17.75</v>
+        <v>60.02</v>
       </c>
       <c r="S50" t="n">
-        <v>1.13</v>
+        <v>19.04</v>
       </c>
       <c r="T50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U50" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V50" t="n">
         <v>3</v>
       </c>
       <c r="W50" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X50" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y50" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>6277</t>
+          <t>6414</t>
         </is>
       </c>
       <c r="B51" t="n">
         <v>20161230</v>
       </c>
       <c r="C51" t="n">
-        <v>3206670</v>
+        <v>8738727</v>
       </c>
       <c r="D51" t="n">
-        <v>2544000</v>
+        <v>6808039</v>
       </c>
       <c r="E51" t="n">
-        <v>5750670</v>
+        <v>15546766</v>
       </c>
       <c r="F51" t="n">
-        <v>1647471</v>
+        <v>6126440</v>
       </c>
       <c r="G51" t="n">
-        <v>392834</v>
+        <v>1519110</v>
       </c>
       <c r="H51" t="n">
-        <v>2040305</v>
+        <v>7645550</v>
       </c>
       <c r="I51" t="n">
-        <v>3710365</v>
+        <v>7901216</v>
       </c>
       <c r="J51" t="n">
-        <v>5750670</v>
+        <v>15546766</v>
       </c>
       <c r="K51" t="n">
-        <v>1194711</v>
+        <v>763008</v>
       </c>
       <c r="L51" t="n">
-        <v>1194711</v>
+        <v>763008</v>
       </c>
       <c r="M51" t="n">
         <v>0</v>
       </c>
       <c r="N51" t="n">
-        <v>1008218</v>
+        <v>1696061</v>
       </c>
       <c r="O51" t="n">
-        <v>10.59</v>
+        <v>29.1</v>
       </c>
       <c r="P51" t="n">
-        <v>16.12</v>
+        <v>9.6</v>
       </c>
       <c r="Q51" t="n">
-        <v>20.43</v>
+        <v>11.72</v>
       </c>
       <c r="R51" t="n">
-        <v>60.02</v>
+        <v>19.81</v>
       </c>
       <c r="S51" t="n">
-        <v>19.04</v>
+        <v>10.77</v>
       </c>
       <c r="T51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X51" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Y51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>6414</t>
+          <t>6579</t>
         </is>
       </c>
       <c r="B52" t="n">
         <v>20161230</v>
       </c>
       <c r="C52" t="n">
-        <v>8738727</v>
+        <v>3934443</v>
       </c>
       <c r="D52" t="n">
-        <v>6808039</v>
+        <v>931375</v>
       </c>
       <c r="E52" t="n">
-        <v>15546766</v>
+        <v>4865818</v>
       </c>
       <c r="F52" t="n">
-        <v>6126440</v>
+        <v>1309832</v>
       </c>
       <c r="G52" t="n">
-        <v>1519110</v>
+        <v>81701</v>
       </c>
       <c r="H52" t="n">
-        <v>7645550</v>
+        <v>1391533</v>
       </c>
       <c r="I52" t="n">
-        <v>7901216</v>
+        <v>3474285</v>
       </c>
       <c r="J52" t="n">
-        <v>15546766</v>
+        <v>4865818</v>
       </c>
       <c r="K52" t="n">
-        <v>763008</v>
+        <v>960000</v>
       </c>
       <c r="L52" t="n">
-        <v>763008</v>
+        <v>960000</v>
       </c>
       <c r="M52" t="n">
         <v>0</v>
       </c>
       <c r="N52" t="n">
-        <v>1696061</v>
+        <v>712841</v>
       </c>
       <c r="O52" t="n">
-        <v>29.1</v>
+        <v>69.56</v>
       </c>
       <c r="P52" t="n">
-        <v>9.6</v>
+        <v>10.1</v>
       </c>
       <c r="Q52" t="n">
-        <v>11.72</v>
+        <v>12.36</v>
       </c>
       <c r="R52" t="n">
-        <v>19.81</v>
+        <v>32.6</v>
       </c>
       <c r="S52" t="n">
-        <v>10.77</v>
+        <v>12.03</v>
       </c>
       <c r="T52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U52" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V52" t="n">
         <v>2</v>
@@ -4583,83 +4583,83 @@
         <v>2</v>
       </c>
       <c r="X52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y52" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>6579</t>
+          <t>6591</t>
         </is>
       </c>
       <c r="B53" t="n">
         <v>20161230</v>
       </c>
       <c r="C53" t="n">
-        <v>3934443</v>
+        <v>812067</v>
       </c>
       <c r="D53" t="n">
-        <v>931375</v>
+        <v>194742</v>
       </c>
       <c r="E53" t="n">
-        <v>4865818</v>
+        <v>1006809</v>
       </c>
       <c r="F53" t="n">
-        <v>1309832</v>
+        <v>402179</v>
       </c>
       <c r="G53" t="n">
-        <v>81701</v>
+        <v>93522</v>
       </c>
       <c r="H53" t="n">
-        <v>1391533</v>
+        <v>495701</v>
       </c>
       <c r="I53" t="n">
-        <v>3474285</v>
+        <v>511108</v>
       </c>
       <c r="J53" t="n">
-        <v>4865818</v>
+        <v>1006809</v>
       </c>
       <c r="K53" t="n">
-        <v>960000</v>
+        <v>161200</v>
       </c>
       <c r="L53" t="n">
-        <v>960000</v>
+        <v>161200</v>
       </c>
       <c r="M53" t="n">
         <v>0</v>
       </c>
       <c r="N53" t="n">
-        <v>712841</v>
+        <v>228227</v>
       </c>
       <c r="O53" t="n">
-        <v>69.56</v>
+        <v>72.87</v>
       </c>
       <c r="P53" t="n">
-        <v>10.1</v>
+        <v>12.54</v>
       </c>
       <c r="Q53" t="n">
-        <v>12.36</v>
+        <v>19.44</v>
       </c>
       <c r="R53" t="n">
-        <v>32.6</v>
+        <v>31.72</v>
       </c>
       <c r="S53" t="n">
-        <v>12.03</v>
+        <v>18.28</v>
       </c>
       <c r="T53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U53" t="n">
         <v>3</v>
       </c>
       <c r="V53" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W53" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X53" t="n">
         <v>2</v>
@@ -4671,220 +4671,220 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>6591</t>
+          <t>6669</t>
         </is>
       </c>
       <c r="B54" t="n">
         <v>20161230</v>
       </c>
       <c r="C54" t="n">
-        <v>812067</v>
+        <v>11350432</v>
       </c>
       <c r="D54" t="n">
-        <v>194742</v>
+        <v>92275</v>
       </c>
       <c r="E54" t="n">
-        <v>1006809</v>
+        <v>11442707</v>
       </c>
       <c r="F54" t="n">
-        <v>402179</v>
+        <v>9567574</v>
       </c>
       <c r="G54" t="n">
-        <v>93522</v>
+        <v>68651</v>
       </c>
       <c r="H54" t="n">
-        <v>495701</v>
+        <v>9636225</v>
       </c>
       <c r="I54" t="n">
-        <v>511108</v>
+        <v>1806482</v>
       </c>
       <c r="J54" t="n">
-        <v>1006809</v>
+        <v>11442707</v>
       </c>
       <c r="K54" t="n">
-        <v>161200</v>
+        <v>888343</v>
       </c>
       <c r="L54" t="n">
-        <v>161200</v>
+        <v>888343</v>
       </c>
       <c r="M54" t="n">
         <v>0</v>
       </c>
       <c r="N54" t="n">
-        <v>228227</v>
+        <v>402838</v>
       </c>
       <c r="O54" t="n">
-        <v>72.87</v>
+        <v>13.86</v>
       </c>
       <c r="P54" t="n">
-        <v>12.54</v>
+        <v>0.98</v>
       </c>
       <c r="Q54" t="n">
-        <v>19.44</v>
+        <v>1.27</v>
       </c>
       <c r="R54" t="n">
-        <v>31.72</v>
+        <v>5.39</v>
       </c>
       <c r="S54" t="n">
-        <v>18.28</v>
+        <v>1.41</v>
       </c>
       <c r="T54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V54" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W54" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y54" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>6669</t>
+          <t>8114</t>
         </is>
       </c>
       <c r="B55" t="n">
         <v>20161230</v>
       </c>
       <c r="C55" t="n">
-        <v>11350432</v>
+        <v>2393431</v>
       </c>
       <c r="D55" t="n">
-        <v>92275</v>
+        <v>5296805</v>
       </c>
       <c r="E55" t="n">
-        <v>11442707</v>
+        <v>7690236</v>
       </c>
       <c r="F55" t="n">
-        <v>9567574</v>
+        <v>2251158</v>
       </c>
       <c r="G55" t="n">
-        <v>68651</v>
+        <v>2780202</v>
       </c>
       <c r="H55" t="n">
-        <v>9636225</v>
+        <v>5031360</v>
       </c>
       <c r="I55" t="n">
-        <v>1806482</v>
+        <v>2658876</v>
       </c>
       <c r="J55" t="n">
-        <v>11442707</v>
+        <v>7690236</v>
       </c>
       <c r="K55" t="n">
-        <v>888343</v>
+        <v>729396</v>
       </c>
       <c r="L55" t="n">
-        <v>888343</v>
+        <v>729426</v>
       </c>
       <c r="M55" t="n">
         <v>0</v>
       </c>
       <c r="N55" t="n">
-        <v>402838</v>
+        <v>684391</v>
       </c>
       <c r="O55" t="n">
-        <v>13.86</v>
+        <v>7.13</v>
       </c>
       <c r="P55" t="n">
-        <v>0.98</v>
+        <v>17.49</v>
       </c>
       <c r="Q55" t="n">
-        <v>1.27</v>
+        <v>18.05</v>
       </c>
       <c r="R55" t="n">
-        <v>5.39</v>
+        <v>43.01</v>
       </c>
       <c r="S55" t="n">
-        <v>1.41</v>
+        <v>20.31</v>
       </c>
       <c r="T55" t="n">
         <v>2</v>
       </c>
       <c r="U55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V55" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W55" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X55" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y55" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>8114</t>
+          <t>8163</t>
         </is>
       </c>
       <c r="B56" t="n">
         <v>20161230</v>
       </c>
       <c r="C56" t="n">
-        <v>2393431</v>
+        <v>11374316</v>
       </c>
       <c r="D56" t="n">
-        <v>5296805</v>
+        <v>5615712</v>
       </c>
       <c r="E56" t="n">
-        <v>7690236</v>
+        <v>16990028</v>
       </c>
       <c r="F56" t="n">
-        <v>2251158</v>
+        <v>7376241</v>
       </c>
       <c r="G56" t="n">
-        <v>2780202</v>
+        <v>1261480</v>
       </c>
       <c r="H56" t="n">
-        <v>5031360</v>
+        <v>8637721</v>
       </c>
       <c r="I56" t="n">
-        <v>2658876</v>
+        <v>8352307</v>
       </c>
       <c r="J56" t="n">
-        <v>7690236</v>
+        <v>16990028</v>
       </c>
       <c r="K56" t="n">
-        <v>729396</v>
+        <v>2979020</v>
       </c>
       <c r="L56" t="n">
-        <v>729426</v>
+        <v>2979020</v>
       </c>
       <c r="M56" t="n">
-        <v>0</v>
+        <v>-341721</v>
       </c>
       <c r="N56" t="n">
-        <v>684391</v>
+        <v>589190</v>
       </c>
       <c r="O56" t="n">
-        <v>7.13</v>
+        <v>-24.63</v>
       </c>
       <c r="P56" t="n">
-        <v>17.49</v>
+        <v>2.53</v>
       </c>
       <c r="Q56" t="n">
-        <v>18.05</v>
+        <v>3.15</v>
       </c>
       <c r="R56" t="n">
-        <v>43.01</v>
+        <v>14.95</v>
       </c>
       <c r="S56" t="n">
-        <v>20.31</v>
+        <v>2.6</v>
       </c>
       <c r="T56" t="n">
         <v>2</v>
@@ -4893,253 +4893,253 @@
         <v>1</v>
       </c>
       <c r="V56" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W56" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X56" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Y56" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>8163</t>
+          <t>8210</t>
         </is>
       </c>
       <c r="B57" t="n">
         <v>20161230</v>
       </c>
       <c r="C57" t="n">
-        <v>11374316</v>
+        <v>3221308</v>
       </c>
       <c r="D57" t="n">
-        <v>5615712</v>
+        <v>1766838</v>
       </c>
       <c r="E57" t="n">
-        <v>16990028</v>
+        <v>4988146</v>
       </c>
       <c r="F57" t="n">
-        <v>7376241</v>
+        <v>1892895</v>
       </c>
       <c r="G57" t="n">
-        <v>1261480</v>
+        <v>238457</v>
       </c>
       <c r="H57" t="n">
-        <v>8637721</v>
+        <v>2131352</v>
       </c>
       <c r="I57" t="n">
-        <v>8352307</v>
+        <v>2856794</v>
       </c>
       <c r="J57" t="n">
-        <v>16990028</v>
+        <v>4988146</v>
       </c>
       <c r="K57" t="n">
-        <v>2979020</v>
+        <v>1197260</v>
       </c>
       <c r="L57" t="n">
-        <v>2979020</v>
+        <v>1197260</v>
       </c>
       <c r="M57" t="n">
-        <v>-341721</v>
+        <v>0</v>
       </c>
       <c r="N57" t="n">
-        <v>589190</v>
+        <v>816275</v>
       </c>
       <c r="O57" t="n">
-        <v>-24.63</v>
+        <v>18.89</v>
       </c>
       <c r="P57" t="n">
-        <v>2.53</v>
+        <v>11.52</v>
       </c>
       <c r="Q57" t="n">
-        <v>3.15</v>
+        <v>15.67</v>
       </c>
       <c r="R57" t="n">
-        <v>14.95</v>
+        <v>29.75</v>
       </c>
       <c r="S57" t="n">
-        <v>2.6</v>
+        <v>14.94</v>
       </c>
       <c r="T57" t="n">
         <v>2</v>
       </c>
       <c r="U57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V57" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W57" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y57" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>8210</t>
+          <t>9912</t>
         </is>
       </c>
       <c r="B58" t="n">
         <v>20161230</v>
       </c>
       <c r="C58" t="n">
-        <v>3221308</v>
+        <v>376856</v>
       </c>
       <c r="D58" t="n">
-        <v>1766838</v>
+        <v>383790</v>
       </c>
       <c r="E58" t="n">
-        <v>4988146</v>
+        <v>760646</v>
       </c>
       <c r="F58" t="n">
-        <v>1892895</v>
+        <v>208011</v>
       </c>
       <c r="G58" t="n">
-        <v>238457</v>
+        <v>945</v>
       </c>
       <c r="H58" t="n">
-        <v>2131352</v>
+        <v>208956</v>
       </c>
       <c r="I58" t="n">
-        <v>2856794</v>
+        <v>551690</v>
       </c>
       <c r="J58" t="n">
-        <v>4988146</v>
+        <v>760646</v>
       </c>
       <c r="K58" t="n">
-        <v>1197260</v>
+        <v>531626</v>
       </c>
       <c r="L58" t="n">
-        <v>1197260</v>
+        <v>531626</v>
       </c>
       <c r="M58" t="n">
         <v>0</v>
       </c>
       <c r="N58" t="n">
-        <v>816275</v>
+        <v>-8547</v>
       </c>
       <c r="O58" t="n">
-        <v>18.89</v>
+        <v>85.37</v>
       </c>
       <c r="P58" t="n">
-        <v>11.52</v>
+        <v>-1.09</v>
       </c>
       <c r="Q58" t="n">
-        <v>15.67</v>
+        <v>-1.13</v>
       </c>
       <c r="R58" t="n">
-        <v>29.75</v>
+        <v>26.91</v>
       </c>
       <c r="S58" t="n">
-        <v>14.94</v>
+        <v>-0.87</v>
       </c>
       <c r="T58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U58" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V58" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W58" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X58" t="n">
         <v>2</v>
       </c>
       <c r="Y58" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>9912</t>
+          <t>3706</t>
         </is>
       </c>
       <c r="B59" t="n">
         <v>20161230</v>
       </c>
       <c r="C59" t="n">
-        <v>376856</v>
+        <v>25553342</v>
       </c>
       <c r="D59" t="n">
-        <v>383790</v>
+        <v>24510596</v>
       </c>
       <c r="E59" t="n">
-        <v>760646</v>
+        <v>50063938</v>
       </c>
       <c r="F59" t="n">
-        <v>208011</v>
+        <v>14887395</v>
       </c>
       <c r="G59" t="n">
-        <v>945</v>
+        <v>660130</v>
       </c>
       <c r="H59" t="n">
-        <v>208956</v>
+        <v>15547525</v>
       </c>
       <c r="I59" t="n">
-        <v>551690</v>
+        <v>34516413</v>
       </c>
       <c r="J59" t="n">
-        <v>760646</v>
+        <v>50063938</v>
       </c>
       <c r="K59" t="n">
-        <v>531626</v>
+        <v>8156048</v>
       </c>
       <c r="L59" t="n">
-        <v>531626</v>
+        <v>8156048</v>
       </c>
       <c r="M59" t="n">
-        <v>0</v>
+        <v>-522449</v>
       </c>
       <c r="N59" t="n">
-        <v>-8547</v>
+        <v>3060937</v>
       </c>
       <c r="O59" t="n">
-        <v>85.37</v>
+        <v>54.98</v>
       </c>
       <c r="P59" t="n">
-        <v>-1.09</v>
+        <v>5.62</v>
       </c>
       <c r="Q59" t="n">
-        <v>-1.13</v>
+        <v>6.33</v>
       </c>
       <c r="R59" t="n">
-        <v>26.91</v>
+        <v>11.49</v>
       </c>
       <c r="S59" t="n">
-        <v>-0.87</v>
+        <v>1.41</v>
       </c>
       <c r="T59" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U59" t="n">
         <v>3</v>
       </c>
       <c r="V59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
